--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE77D65-0620-4E47-8F2C-11494E734B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB0AC9-AB34-404C-8CEE-20F4759C1BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2220" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,8 +187,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エメラルドの森</t>
-    <rPh sb="6" eb="7">
+    <t>近くの森</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>モリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -721,7 +724,7 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -781,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB0AC9-AB34-404C-8CEE-20F4759C1BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D62C37-061F-4F6F-9FC9-D62217089AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="5250" yWindow="3270" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -724,7 +724,7 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D62C37-061F-4F6F-9FC9-D62217089AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF89E89-7A9D-4381-A66F-ACB60518868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3270" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4020" yWindow="2010" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -194,6 +194,18 @@
     <rPh sb="3" eb="4">
       <t>モリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_rare3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_rare_prob3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emerald_suger</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -590,10 +602,13 @@
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="18" max="19" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="19" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,28 +646,34 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
         <v>0</v>
@@ -690,29 +711,35 @@
       <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2">
         <v>60</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>25</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
+        <v>95</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -748,31 +775,37 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3">
         <v>60</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>25</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
+        <v>90</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -810,29 +843,35 @@
       <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4">
         <v>60</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>25</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -870,25 +909,31 @@
       <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
         <v>60</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>25</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>12</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF89E89-7A9D-4381-A66F-ACB60518868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0634091D-727E-4CBA-B1E4-7C77714942C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2010" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3060" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -715,16 +715,16 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -781,16 +781,16 @@
         <v>30</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>25</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0634091D-727E-4CBA-B1E4-7C77714942C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E83F8-A28D-4462-9F9D-2F6BE0611EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3480" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -591,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -820,7 +822,7 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E83F8-A28D-4462-9F9D-2F6BE0611EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF21F66-5C4B-498D-848B-FB24F0F17880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>drop_rare_prob2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Town</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -208,6 +204,40 @@
   </si>
   <si>
     <t>emerald_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>村の井戸</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ido</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hiroba</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>forest_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>town_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -591,136 +621,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="19" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="13.625" customWidth="1"/>
+    <col min="3" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="20" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A6" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
         <v>10</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
       </c>
       <c r="P2">
         <v>30</v>
@@ -729,213 +762,294 @@
         <v>30</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>95</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>40</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
       <c r="P3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
       </c>
       <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4">
         <v>25</v>
       </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
       <c r="Q4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>95</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>300</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5">
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
         <v>60</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <v>25</v>
       </c>
-      <c r="P5">
+      <c r="Q6">
         <v>12</v>
       </c>
-      <c r="Q5">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>95</v>
       </c>
-      <c r="T5">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="U5">
+      <c r="V6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF21F66-5C4B-498D-848B-FB24F0F17880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F18AA7-BE0C-4EB0-8F4C-035316B4FFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2355" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -133,13 +133,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>農園</t>
-    <rPh sb="0" eb="2">
-      <t>ノウエン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>星降りの丘</t>
     <rPh sb="0" eb="1">
       <t>ホシ</t>
@@ -238,6 +231,271 @@
   </si>
   <si>
     <t>town_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダー畑</t>
+    <rPh sb="5" eb="6">
+      <t>ハタケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender_field</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルドの森</t>
+    <rPh sb="6" eb="7">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Emerald_Forest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：ベルギー　ハレルボス　一面にブルーベルの花が咲き乱れ、光に包まれるような場所</t>
+    <rPh sb="16" eb="18">
+      <t>イチメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：NZランド　ホビット村　牧歌的で、丸い建物がところどころにある広大な牧草地</t>
+    <rPh sb="15" eb="16">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ボッカテキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ボクソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>忘れられるる島</t>
+    <rPh sb="0" eb="1">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：インドネシア　タナロット寺院　浜辺に近いところにポツンと浮かぶ、海上の島。たくさんの色とりどりの花が咲き乱れる。</t>
+    <rPh sb="17" eb="19">
+      <t>ジイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハマベ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：NZランド　テカポ湖の丘　夜に一面の星空が広がる。紫の花がちらほら。</t>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホシゾラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：富良野ラベンダー畑　一面に紫一色の広大な畑。</t>
+    <rPh sb="5" eb="8">
+      <t>フラノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッショク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハタケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：中国　ホタルの森　薄暗く、青緑色に霧が深くかかった、幻想的な森。ホタルがとびかう。</t>
+    <rPh sb="5" eb="7">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウスグラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ゲンソウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Forget_Island</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：ドイツ　ゲンゲンバッハ　かわいいカラフルな家やショップが立ち並ぶ。</t>
+    <rPh sb="26" eb="27">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：アイルランド　アデア　広場のはずれにある井戸。木・藁ぶき屋根の石造家屋が立ち並ぶ。建物は少な目。</t>
+    <rPh sb="16" eb="18">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セキゾウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カオク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モタリケの農場</t>
+    <rPh sb="5" eb="7">
+      <t>ノウジョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -621,31 +879,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="20" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.625" customWidth="1"/>
+    <col min="3" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="21" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -654,109 +912,112 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A6" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2">
         <v>10</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -765,71 +1026,74 @@
         <v>30</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>95</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>90</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -837,219 +1101,447 @@
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>95</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4">
         <v>40</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>15</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>90</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>10</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
         <v>60</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>25</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>12</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>95</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>95</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>95</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>95</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6">
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9">
         <v>60</v>
       </c>
-      <c r="P6">
+      <c r="Q9">
         <v>25</v>
       </c>
-      <c r="Q6">
+      <c r="R9">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>95</v>
       </c>
-      <c r="U6">
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="V6">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F18AA7-BE0C-4EB0-8F4C-035316B4FFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFF778-6834-4DC2-9A83-ED90EF325045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2970" yWindow="1170" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -496,6 +496,10 @@
     <rPh sb="5" eb="7">
       <t>ノウジョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>place_day</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -879,26 +883,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="14.125" customWidth="1"/>
-    <col min="21" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="22" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,61 +920,64 @@
         <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
@@ -992,21 +1000,21 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
@@ -1016,11 +1024,11 @@
       <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
       </c>
       <c r="R2">
         <v>30</v>
@@ -1029,19 +1037,22 @@
         <v>30</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>95</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1062,17 +1073,17 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
@@ -1088,15 +1099,15 @@
       <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>90</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
@@ -1104,16 +1115,19 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>95</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1131,61 +1145,64 @@
         <v>48</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4">
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4">
         <v>40</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>15</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>90</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>10</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1203,26 +1220,26 @@
         <v>49</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
@@ -1232,32 +1249,35 @@
       <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
         <v>60</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>25</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>12</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>95</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1275,26 +1295,26 @@
         <v>54</v>
       </c>
       <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>300</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
@@ -1304,32 +1324,35 @@
       <c r="O6" t="s">
         <v>28</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6">
         <v>60</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>95</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1347,26 +1370,26 @@
         <v>53</v>
       </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>300</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
       <c r="M7" t="s">
         <v>28</v>
       </c>
@@ -1376,32 +1399,35 @@
       <c r="O7" t="s">
         <v>28</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7">
         <v>60</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>12</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>95</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1419,26 +1445,26 @@
         <v>51</v>
       </c>
       <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
         <v>300</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
@@ -1448,32 +1474,35 @@
       <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>25</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>95</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1491,26 +1520,26 @@
         <v>52</v>
       </c>
       <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
         <v>300</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
       <c r="M9" t="s">
         <v>28</v>
       </c>
@@ -1520,28 +1549,31 @@
       <c r="O9" t="s">
         <v>28</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
         <v>60</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>25</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>95</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFF778-6834-4DC2-9A83-ED90EF325045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA3CAE-50FA-4A17-856E-FD58EE2ACFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1170" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -995,13 +995,13 @@
         <v>56</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA3CAE-50FA-4A17-856E-FD58EE2ACFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948F1BF-8B7B-4B6C-AA62-A593E5414430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3465" yWindow="1980" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948F1BF-8B7B-4B6C-AA62-A593E5414430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33F934-926F-421D-9DF1-864E8A2ACF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1980" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="5085" yWindow="3435" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -120,16 +120,6 @@
   </si>
   <si>
     <t>Star_Mountain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>街の市場</t>
-    <rPh sb="0" eb="1">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチバ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -174,10 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>suger</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>近くの森</t>
     <rPh sb="0" eb="1">
       <t>チカ</t>
@@ -492,14 +478,55 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モタリケの農場</t>
+    <t>place_day</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>farm_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>village_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>town2_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lake_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：ショップ。かわいい感じ。</t>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中央広場</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モタリケの牧場</t>
     <rPh sb="5" eb="7">
-      <t>ノウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>place_day</t>
+      <t>ボクジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ザッハトルテ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -883,14 +910,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -908,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -917,10 +945,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -950,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -974,25 +1002,25 @@
         <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1004,28 +1032,28 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1058,61 +1086,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3">
         <v>10</v>
       </c>
       <c r="R3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1133,70 +1161,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
       <c r="R4">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1208,16 +1236,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1229,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5">
         <v>60</v>
@@ -1283,70 +1311,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>25</v>
       </c>
       <c r="S6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1358,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1367,10 +1395,10 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>300</v>
@@ -1379,28 +1407,28 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7">
         <v>60</v>
@@ -1433,19 +1461,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>300</v>
@@ -1454,28 +1482,28 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8">
         <v>60</v>
@@ -1508,16 +1536,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>36</v>
@@ -1529,28 +1557,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9">
         <v>60</v>
@@ -1574,6 +1602,81 @@
         <v>5</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>95</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33F934-926F-421D-9DF1-864E8A2ACF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C69373-736E-4006-A05F-170541DA3D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3435" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3045" yWindow="3540" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C69373-736E-4006-A05F-170541DA3D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C978D-94BC-48FA-B1FF-C2D36CDC1A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="3540" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3855" yWindow="2445" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C978D-94BC-48FA-B1FF-C2D36CDC1A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4C565-3CBA-4380-A091-EBA5B253EDEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2445" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -527,6 +527,50 @@
   </si>
   <si>
     <t>ザッハトルテ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_item6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_item7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_item8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_item9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_item10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_prob6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_prob7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_prob8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_prob9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drop_prob10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strange_grass</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -910,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -925,13 +969,14 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="22" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="32" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,40 +1017,70 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
@@ -1055,32 +1130,62 @@
       <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2">
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>30</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>30</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>95</v>
       </c>
-      <c r="W2">
+      <c r="AG2">
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="AH2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1130,32 +1235,62 @@
       <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="R3">
+      <c r="W3">
         <v>30</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>30</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>30</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>95</v>
       </c>
-      <c r="W3">
+      <c r="AG3">
         <v>5</v>
       </c>
-      <c r="X3">
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1205,32 +1340,62 @@
       <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4">
         <v>10</v>
       </c>
-      <c r="R4">
+      <c r="W4">
         <v>90</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>95</v>
       </c>
-      <c r="W4">
+      <c r="AG4">
         <v>5</v>
       </c>
-      <c r="X4">
+      <c r="AH4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1280,32 +1445,62 @@
       <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5">
         <v>60</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <v>25</v>
       </c>
-      <c r="S5">
+      <c r="X5">
         <v>12</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>95</v>
       </c>
-      <c r="W5">
+      <c r="AG5">
         <v>5</v>
       </c>
-      <c r="X5">
+      <c r="AH5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1344,43 +1539,73 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
       <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6">
-        <v>40</v>
-      </c>
-      <c r="R6">
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6">
         <v>25</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <v>20</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <v>15</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>90</v>
       </c>
-      <c r="W6">
+      <c r="AG6">
         <v>10</v>
       </c>
-      <c r="X6">
+      <c r="AH6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1430,32 +1655,62 @@
       <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7">
         <v>60</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <v>25</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <v>12</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <v>3</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>95</v>
       </c>
-      <c r="W7">
+      <c r="AG7">
         <v>5</v>
       </c>
-      <c r="X7">
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1505,32 +1760,62 @@
       <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8">
         <v>60</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <v>25</v>
       </c>
-      <c r="S8">
+      <c r="X8">
         <v>12</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>95</v>
       </c>
-      <c r="W8">
+      <c r="AG8">
         <v>5</v>
       </c>
-      <c r="X8">
+      <c r="AH8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1580,32 +1865,62 @@
       <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9">
         <v>60</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <v>25</v>
       </c>
-      <c r="S9">
+      <c r="X9">
         <v>12</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>95</v>
       </c>
-      <c r="W9">
+      <c r="AG9">
         <v>5</v>
       </c>
-      <c r="X9">
+      <c r="AH9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1655,28 +1970,58 @@
       <c r="P10" t="s">
         <v>27</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10">
         <v>60</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <v>25</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>12</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>3</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>95</v>
       </c>
-      <c r="W10">
+      <c r="AG10">
         <v>5</v>
       </c>
-      <c r="X10">
+      <c r="AH10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4C565-3CBA-4380-A091-EBA5B253EDEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DDD12-1D86-4B80-8766-F50A6B701A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -571,6 +571,30 @@
   </si>
   <si>
     <t>strange_grass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリーガーデン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrawberryGarden</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blue_berry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cherry</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -954,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1106,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1719,10 +1743,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1731,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1740,13 +1764,13 @@
         <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -1770,22 +1794,22 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1824,16 +1848,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>300</v>
@@ -1929,13 +1953,13 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>36</v>
@@ -2022,6 +2046,111 @@
         <v>5</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11">
+        <v>60</v>
+      </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>95</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DDD12-1D86-4B80-8766-F50A6B701A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74298AD2-739A-4DF0-9119-E031F209FBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3240" yWindow="2430" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -595,6 +595,25 @@
   </si>
   <si>
     <t>cherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hill_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひまわりの丘</t>
+    <rPh sb="5" eb="6">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HimawariHill</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_seed</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -978,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1106,7 +1125,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1635,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1740,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -1845,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1860,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1869,13 +1888,13 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -1905,16 +1924,16 @@
         <v>27</v>
       </c>
       <c r="V9">
+        <v>40</v>
+      </c>
+      <c r="W9">
         <v>60</v>
       </c>
-      <c r="W9">
-        <v>25</v>
-      </c>
       <c r="X9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1950,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>300</v>
@@ -2058,13 +2077,13 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>36</v>
@@ -2151,6 +2170,111 @@
         <v>5</v>
       </c>
       <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12">
+        <v>60</v>
+      </c>
+      <c r="W12">
+        <v>25</v>
+      </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>95</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74298AD2-739A-4DF0-9119-E031F209FBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD22CC7-768B-4EA0-ABB2-5FBB7B116F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3240" yWindow="2430" windowWidth="23505" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -614,6 +614,30 @@
   </si>
   <si>
     <t>himawari_seed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BirdSanctuali</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バードサンクチュアリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pink_suger</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -997,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1125,7 +1149,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1657,19 +1681,19 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1678,16 +1702,16 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -1708,25 +1732,25 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
       </c>
       <c r="V7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="X7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1744,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1759,22 +1783,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1783,13 +1807,13 @@
         <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -1813,22 +1837,22 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1867,10 +1891,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1888,13 +1912,13 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -1918,7 +1942,7 @@
         <v>27</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1927,13 +1951,13 @@
         <v>40</v>
       </c>
       <c r="W9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1969,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -1984,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1993,13 +2017,13 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -2023,22 +2047,22 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
       </c>
       <c r="V10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2074,19 +2098,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>300</v>
@@ -2182,13 +2206,13 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -2275,6 +2299,111 @@
         <v>5</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>25</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>95</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD22CC7-768B-4EA0-ABB2-5FBB7B116F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9F99E-1679-43B2-BD28-E0C553BB1AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>blue_berry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>peach</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -602,13 +598,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひまわりの丘</t>
-    <rPh sb="5" eb="6">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HimawariHill</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -638,6 +627,14 @@
   </si>
   <si>
     <t>pink_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンフラワーヒルズ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1023,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1681,10 +1678,10 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1702,13 +1699,13 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
         <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
       </c>
       <c r="M7" t="s">
         <v>76</v>
@@ -1732,7 +1729,7 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1888,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -1915,34 +1912,34 @@
         <v>79</v>
       </c>
       <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
         <v>81</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" t="s">
-        <v>82</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1993,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -2017,10 +2014,10 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -2047,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9F99E-1679-43B2-BD28-E0C553BB1AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDC4FB-D552-42BA-979A-8A13CCD7CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -634,7 +634,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サンフラワーヒルズ</t>
+    <t>ひまわりの丘</t>
+    <rPh sb="5" eb="6">
+      <t>オカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDC4FB-D552-42BA-979A-8A13CCD7CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0BE88-55F1-454D-BECE-ADDB098D5970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -220,13 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラベンダー畑</t>
-    <rPh sb="5" eb="6">
-      <t>ハタケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Lavender_field</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -574,10 +567,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ストロベリーガーデン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>StrawberryGarden</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -634,9 +623,72 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひまわりの丘</t>
+    <t>lavender_flower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1_forest_a_600_300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>center_bg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>back_bg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>110618_</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3_strawberrygarden_600_300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03l</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4_himawarihill_600_300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2_ido_a_600_300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nexfan_01_800.600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルビーガーデン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シトリンの丘</t>
     <rPh sb="5" eb="6">
       <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アメジストの湖畔</t>
+    <rPh sb="6" eb="8">
+      <t>コハン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1021,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1043,7 +1095,7 @@
     <col min="34" max="34" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,10 +1109,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1084,19 +1136,19 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -1123,19 +1175,19 @@
         <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>16</v>
@@ -1146,23 +1198,29 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1251,8 +1309,14 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1261,13 +1325,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1356,14 +1420,20 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1372,7 +1442,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1461,23 +1531,29 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1566,8 +1642,14 @@
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1582,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1606,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -1671,8 +1753,14 @@
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1681,13 +1769,13 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1702,16 +1790,16 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -1732,7 +1820,7 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1776,8 +1864,14 @@
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1786,13 +1880,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1881,29 +1975,35 @@
       <c r="AH8">
         <v>0</v>
       </c>
+      <c r="AI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1912,19 +2012,19 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
         <v>27</v>
@@ -1942,28 +2042,28 @@
         <v>27</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
       </c>
       <c r="V9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="W9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X9">
+        <v>12</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
         <v>20</v>
-      </c>
-      <c r="Y9">
-        <v>5</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1986,23 +2086,29 @@
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -2017,13 +2123,13 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -2047,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2056,13 +2162,13 @@
         <v>40</v>
       </c>
       <c r="W10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X10">
         <v>20</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2091,29 +2197,35 @@
       <c r="AH10">
         <v>0</v>
       </c>
+      <c r="AI10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2122,13 +2234,13 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
         <v>27</v>
@@ -2152,22 +2264,22 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
       </c>
       <c r="V11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2196,8 +2308,14 @@
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AI11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2206,13 +2324,13 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -2301,8 +2419,14 @@
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AI12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2317,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>36</v>
@@ -2405,6 +2529,12 @@
       </c>
       <c r="AH13">
         <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0BE88-55F1-454D-BECE-ADDB098D5970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59801431-80F3-4A6C-982E-BFA08BE942C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="107">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -607,10 +607,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>pear</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>egg</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -690,6 +686,14 @@
     <rPh sb="6" eb="8">
       <t>コハン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5_lavender_field_600_300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>450-20170710225117319536</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1075,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1199,10 +1203,10 @@
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
@@ -1310,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -1421,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.4">
@@ -1532,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="AI4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>100</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
@@ -1643,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
@@ -1754,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
@@ -1790,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
         <v>78</v>
@@ -1820,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1865,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -1976,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
@@ -1994,7 +1998,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -2012,19 +2016,19 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
         <v>27</v>
@@ -2048,22 +2052,22 @@
         <v>27</v>
       </c>
       <c r="V9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="W9">
         <v>25</v>
       </c>
       <c r="X9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2087,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
@@ -2105,7 +2109,7 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -2126,7 +2130,7 @@
         <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -2198,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>96</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
@@ -2216,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -2264,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2309,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AI11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
@@ -2420,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
@@ -2531,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59801431-80F3-4A6C-982E-BFA08BE942C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32693747-F469-4B1E-A606-0598C083154A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2004,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -2115,7 +2115,7 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -2226,7 +2226,7 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -2337,7 +2337,7 @@
         <v>48</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>300</v>
@@ -2448,7 +2448,7 @@
         <v>49</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>300</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32693747-F469-4B1E-A606-0598C083154A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD52A74-79DC-4460-BE9E-9BC13DAA13FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,16 +502,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中央広場</t>
-    <rPh sb="0" eb="2">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒロバ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モタリケの牧場</t>
     <rPh sb="5" eb="7">
       <t>ボクジョウ</t>
@@ -519,10 +509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ザッハトルテ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>drop_item6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -694,6 +680,20 @@
   </si>
   <si>
     <t>450-20170710225117319536</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>村の広場</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1140,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -1179,19 +1179,19 @@
         <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>16</v>
@@ -1203,10 +1203,10 @@
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
@@ -1221,7 +1221,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -1332,7 +1332,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.4">
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
@@ -1554,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1647,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
@@ -1692,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
@@ -1773,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1794,16 +1794,16 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -1824,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
@@ -1998,7 +1998,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -2016,10 +2016,10 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
         <v>36</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
@@ -2103,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -2127,37 +2127,37 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
         <v>77</v>
-      </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>79</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
@@ -2214,13 +2214,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -2238,10 +2238,10 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2268,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2313,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD52A74-79DC-4460-BE9E-9BC13DAA13FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E935B4-6E42-4FAF-8275-9ABF3260643B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E935B4-6E42-4FAF-8275-9ABF3260643B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD8BEA-ED99-4FE2-842C-53B58B4A7E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="-420" yWindow="1290" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -694,6 +694,10 @@
   </si>
   <si>
     <t>ショップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mnkuhi471565673986</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1079,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1872,7 +1876,7 @@
         <v>89</v>
       </c>
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD8BEA-ED99-4FE2-842C-53B58B4A7E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8DC8E-DF96-4CB0-9707-9CAA384FEEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="1290" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8DC8E-DF96-4CB0-9707-9CAA384FEEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C505B81-24D7-4684-8091-139555C655A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1720,7 +1720,7 @@
         <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="V6">
         <v>20</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AG6">
         <v>10</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="s">
         <v>89</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C505B81-24D7-4684-8091-139555C655A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA29B7-CD24-4C79-B3F9-2E3C0F8C06FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="111">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -698,6 +698,27 @@
   </si>
   <si>
     <t>mnkuhi471565673986</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Emerald_Shop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルドショップ　頑張って集めたエメラルどんぐりは、ここでごほうびに変わる。</t>
+    <rPh sb="10" eb="12">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>？？？</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1081,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1215,7 +1236,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2545,9 +2566,120 @@
         <v>92</v>
       </c>
     </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>30</v>
+      </c>
+      <c r="X14">
+        <v>30</v>
+      </c>
+      <c r="Y14">
+        <v>30</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>95</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA29B7-CD24-4C79-B3F9-2E3C0F8C06FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB45A4-A671-49B9-9147-95D847A18597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -719,6 +719,18 @@
   </si>
   <si>
     <t>？？？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>legendtree_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mountain_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1105,7 +1117,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1795,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -2239,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -2350,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2461,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2572,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB45A4-A671-49B9-9147-95D847A18597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68C98E-93A6-4087-85CF-6AB7CAF024E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2730" yWindow="1335" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,10 +718,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>？？？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>oldhouse_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -731,6 +727,10 @@
   </si>
   <si>
     <t>mountain_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラル☆ショップ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2251,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2473,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2584,13 +2584,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
         <v>109</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68C98E-93A6-4087-85CF-6AB7CAF024E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57B186-F9E2-404F-AC9B-5A4B720A100A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1335" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エメラル☆ショップ</t>
+    <t>怪しげな館</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,19 +1696,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1720,16 +1720,16 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -1750,25 +1750,25 @@
         <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="V6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AG6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
@@ -1807,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1825,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
         <v>73</v>
@@ -1861,22 +1861,22 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="V7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W7">
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
         <v>15</v>
-      </c>
-      <c r="X7">
-        <v>15</v>
-      </c>
-      <c r="Y7">
-        <v>10</v>
       </c>
       <c r="Z7">
         <v>20</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AG7">
         <v>10</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="s">
         <v>89</v>
       </c>
       <c r="AJ7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -1918,22 +1918,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
@@ -1972,25 +1972,25 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="X8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>89</v>
       </c>
       <c r="AJ8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
@@ -2029,22 +2029,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -2089,16 +2089,16 @@
         <v>27</v>
       </c>
       <c r="V9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W9">
         <v>25</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AJ9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
@@ -2140,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -2194,22 +2194,22 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="W10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
         <v>20</v>
-      </c>
-      <c r="Y10">
-        <v>5</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
@@ -2251,13 +2251,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -2275,13 +2275,13 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
         <v>27</v>
@@ -2305,7 +2305,7 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2314,13 +2314,13 @@
         <v>40</v>
       </c>
       <c r="W11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X11">
         <v>20</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
@@ -2362,22 +2362,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2386,13 +2386,13 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2416,22 +2416,22 @@
         <v>27</v>
       </c>
       <c r="T12" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
       </c>
       <c r="V12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W12">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
@@ -2473,16 +2473,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>18</v>
@@ -2584,37 +2584,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
         <v>27</v>
@@ -2644,16 +2644,16 @@
         <v>27</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="W14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Y14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="AJ14" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57B186-F9E2-404F-AC9B-5A4B720A100A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DF2B0-5B42-4D07-A80E-7ED7A12B2D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DF2B0-5B42-4D07-A80E-7ED7A12B2D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E023E56-8283-40DB-8071-49D477DF70F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2955" yWindow="1335" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,17 +1117,19 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="18" max="18" width="10.25" customWidth="1"/>
     <col min="20" max="20" width="14.5" customWidth="1"/>
@@ -2155,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2266,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2377,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E023E56-8283-40DB-8071-49D477DF70F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF4E11-9FF3-41F2-A689-D964E717F0E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1335" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -668,13 +668,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アメジストの湖畔</t>
-    <rPh sb="6" eb="8">
-      <t>コハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5_lavender_field_600_300</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -731,6 +724,17 @@
   </si>
   <si>
     <t>怪しげな館</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アメジストの湖</t>
+    <rPh sb="6" eb="7">
+      <t>ミズウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>place_type</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1114,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1128,17 +1132,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="18" max="18" width="10.25" customWidth="1"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="32" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="13.625" customWidth="1"/>
+    <col min="8" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="19" max="19" width="10.25" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="33" max="34" width="14" customWidth="1"/>
+    <col min="35" max="35" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,91 +1168,94 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
@@ -1260,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -1274,12 +1281,12 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
@@ -1313,11 +1320,11 @@
       <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2">
         <v>10</v>
-      </c>
-      <c r="W2">
-        <v>30</v>
       </c>
       <c r="X2">
         <v>30</v>
@@ -1326,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1344,22 +1351,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>95</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>99</v>
+      <c r="AI2">
+        <v>0</v>
       </c>
       <c r="AJ2" t="s">
         <v>99</v>
       </c>
+      <c r="AK2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1371,7 +1381,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1385,12 +1395,12 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
@@ -1424,11 +1434,11 @@
       <c r="U3" t="s">
         <v>27</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3">
         <v>10</v>
-      </c>
-      <c r="W3">
-        <v>30</v>
       </c>
       <c r="X3">
         <v>30</v>
@@ -1437,7 +1447,7 @@
         <v>30</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1455,22 +1465,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>95</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>5</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>99</v>
+      <c r="AI3">
+        <v>0</v>
       </c>
       <c r="AJ3" t="s">
         <v>99</v>
       </c>
+      <c r="AK3" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1496,15 +1509,15 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
@@ -1535,15 +1548,15 @@
       <c r="U4" t="s">
         <v>27</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4">
         <v>10</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>90</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -1566,22 +1579,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>95</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>5</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1607,12 +1623,12 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
@@ -1646,21 +1662,21 @@
       <c r="U5" t="s">
         <v>27</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5">
         <v>60</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>25</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>12</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AA5">
         <v>0</v>
       </c>
@@ -1677,37 +1693,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>95</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>5</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>99</v>
+      <c r="AI5">
+        <v>0</v>
       </c>
       <c r="AJ5" t="s">
         <v>99</v>
       </c>
+      <c r="AK5" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1718,12 +1737,12 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
@@ -1757,11 +1776,11 @@
       <c r="U6" t="s">
         <v>27</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6">
         <v>10</v>
-      </c>
-      <c r="W6">
-        <v>30</v>
       </c>
       <c r="X6">
         <v>30</v>
@@ -1770,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1788,22 +1807,25 @@
         <v>0</v>
       </c>
       <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>95</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>27</v>
+      <c r="AI6">
+        <v>0</v>
       </c>
       <c r="AJ6" t="s">
         <v>27</v>
       </c>
+      <c r="AK6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1829,24 +1851,24 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>73</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
@@ -1863,29 +1885,29 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>88</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>20</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>25</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>20</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>15</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>20</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>0</v>
       </c>
@@ -1899,22 +1921,25 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>70</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>10</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>20</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>89</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1940,24 +1965,24 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
       <c r="O8" t="s">
         <v>27</v>
       </c>
@@ -1974,29 +1999,29 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
         <v>85</v>
       </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8">
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8">
         <v>40</v>
-      </c>
-      <c r="W8">
-        <v>15</v>
       </c>
       <c r="X8">
         <v>15</v>
       </c>
       <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8">
         <v>10</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>20</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
       <c r="AB8">
         <v>0</v>
       </c>
@@ -2010,22 +2035,25 @@
         <v>0</v>
       </c>
       <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>90</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>10</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>89</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>107</v>
+      <c r="AK8" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2051,21 +2079,21 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" t="s">
         <v>27</v>
       </c>
@@ -2090,21 +2118,21 @@
       <c r="U9" t="s">
         <v>27</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9">
         <v>60</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>25</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>12</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
         <v>0</v>
       </c>
@@ -2121,22 +2149,25 @@
         <v>0</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>95</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>5</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>89</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2148,7 +2179,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -2162,21 +2193,21 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>87</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>76</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" t="s">
         <v>27</v>
       </c>
@@ -2201,21 +2232,21 @@
       <c r="U10" t="s">
         <v>27</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10">
         <v>48</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>25</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>20</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
         <v>0</v>
       </c>
@@ -2232,22 +2263,25 @@
         <v>0</v>
       </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>95</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>5</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK10" t="s">
         <v>103</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2273,21 +2307,21 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>75</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>86</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>76</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" t="s">
         <v>27</v>
       </c>
@@ -2307,26 +2341,26 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
         <v>77</v>
       </c>
-      <c r="U11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11">
         <v>40</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>35</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>20</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
         <v>0</v>
       </c>
@@ -2343,28 +2377,31 @@
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>95</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>5</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>93</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -2384,18 +2421,18 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>83</v>
       </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
       <c r="M12" t="s">
         <v>27</v>
       </c>
@@ -2418,23 +2455,23 @@
         <v>27</v>
       </c>
       <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
         <v>88</v>
       </c>
-      <c r="U12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12">
-        <v>40</v>
+      <c r="V12" t="s">
+        <v>27</v>
       </c>
       <c r="W12">
         <v>40</v>
       </c>
       <c r="X12">
+        <v>40</v>
+      </c>
+      <c r="Y12">
         <v>20</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
@@ -2454,28 +2491,31 @@
         <v>0</v>
       </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>95</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>5</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>95</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -2495,21 +2535,21 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>23</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
       <c r="N13" t="s">
         <v>27</v>
       </c>
@@ -2534,21 +2574,21 @@
       <c r="U13" t="s">
         <v>27</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13">
         <v>60</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>25</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>12</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
         <v>0</v>
       </c>
@@ -2565,28 +2605,31 @@
         <v>0</v>
       </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>95</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>5</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>89</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2606,21 +2649,21 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>23</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
       <c r="N14" t="s">
         <v>27</v>
       </c>
@@ -2645,21 +2688,21 @@
       <c r="U14" t="s">
         <v>27</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14">
         <v>60</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>25</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>12</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
       <c r="AA14">
         <v>0</v>
       </c>
@@ -2676,18 +2719,21 @@
         <v>0</v>
       </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
         <v>95</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>5</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>89</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF4E11-9FF3-41F2-A689-D964E717F0E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F5CBA-DE92-40FB-8842-0F4CDC355A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3345" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="120">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -735,6 +735,80 @@
   </si>
   <si>
     <t>place_type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>earlgrey_leaf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>egg_premiaum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：天地創造のバードサンクチュアリ　大きな湖と聖剣伝説に出てきそうなりっぱな大樹　鳥の他、たくさんの小動物たち</t>
+    <rPh sb="5" eb="9">
+      <t>テンチソウゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミズウミ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セイケンデンセツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイジュ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ショウドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：富良野ラベンダー畑　一面に紫一色の広大な畑と、大きな湖</t>
+    <rPh sb="5" eb="8">
+      <t>フラノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッショク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミズウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mushroom</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1120,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1870,7 +1944,7 @@
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -1897,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="X7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y7">
         <v>20</v>
@@ -1909,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1954,7 +2028,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1984,10 +2058,10 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2008,7 +2082,7 @@
         <v>27</v>
       </c>
       <c r="W8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X8">
         <v>15</v>
@@ -2020,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="AA8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2182,7 +2256,7 @@
         <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F10">
         <v>6</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F5CBA-DE92-40FB-8842-0F4CDC355A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06940375-176B-464C-B0CA-A3682CE3919B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="1230" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>mushroom</t>
+    <t>mint</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06940375-176B-464C-B0CA-A3682CE3919B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE36E6-F794-4E0F-A894-30D92ED4E5EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3000" yWindow="1230" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE36E6-F794-4E0F-A894-30D92ED4E5EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FA13E-7610-4BB3-9B6B-802D49FCE84B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>nexfan_01_800.600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Non</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -809,6 +805,10 @@
   </si>
   <si>
     <t>mint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nexfan_01_800_600</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1341,7 +1341,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
@@ -1455,7 +1455,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.4">
@@ -1668,7 +1668,7 @@
         <v>97</v>
       </c>
       <c r="AK4" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
@@ -1791,16 +1791,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -2028,7 +2028,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2058,10 +2058,10 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" t="s">
-        <v>116</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2124,7 +2124,7 @@
         <v>89</v>
       </c>
       <c r="AK8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2253,10 +2253,10 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK10" t="s">
         <v>102</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2367,7 +2367,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -2475,13 +2475,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -2589,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FA13E-7610-4BB3-9B6B-802D49FCE84B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBDB30E-4500-4E62-81B7-558F44ADF87C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBDB30E-4500-4E62-81B7-558F44ADF87C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D66E6-6F56-4D1E-A878-D7D8E0AF9F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -653,17 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ルビーガーデン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シトリンの丘</t>
-    <rPh sb="5" eb="6">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5_lavender_field_600_300</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -809,6 +798,45 @@
   </si>
   <si>
     <t>nexfan_01_800_600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリーガーデン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひまわりの丘</t>
+    <rPh sb="5" eb="6">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BerryFarm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリーファーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>raspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cranberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blackcurrant</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1192,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1242,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1331,7 +1359,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1341,7 +1369,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -1455,7 +1483,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1668,7 +1696,7 @@
         <v>97</v>
       </c>
       <c r="AK4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1791,16 +1819,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1944,7 +1972,7 @@
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -2028,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2052,16 +2080,16 @@
         <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2124,7 +2152,7 @@
         <v>89</v>
       </c>
       <c r="AK8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2136,19 +2164,19 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2160,19 +2188,19 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
         <v>27</v>
@@ -2190,28 +2218,28 @@
         <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="W9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2226,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH9">
         <v>5</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="s">
         <v>89</v>
@@ -2247,22 +2275,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2274,13 +2302,13 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
         <v>27</v>
@@ -2310,16 +2338,16 @@
         <v>27</v>
       </c>
       <c r="W10">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="X10">
         <v>25</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -2349,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AK10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2361,22 +2389,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2388,13 +2416,13 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
         <v>27</v>
@@ -2418,22 +2446,22 @@
         <v>27</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="V11" t="s">
         <v>27</v>
       </c>
       <c r="W11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="X11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
         <v>20</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2463,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -2475,13 +2503,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -2502,16 +2530,16 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
         <v>27</v>
@@ -2532,7 +2560,7 @@
         <v>27</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s">
         <v>27</v>
@@ -2541,16 +2569,16 @@
         <v>40</v>
       </c>
       <c r="X12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2577,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -2589,22 +2617,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2616,13 +2644,13 @@
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
@@ -2646,22 +2674,22 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
         <v>27</v>
       </c>
       <c r="W13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X13">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2691,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -2703,16 +2731,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>18</v>
@@ -2808,6 +2836,120 @@
         <v>89</v>
       </c>
       <c r="AK14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15">
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>95</v>
+      </c>
+      <c r="AH15">
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK15" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D66E6-6F56-4D1E-A878-D7D8E0AF9F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF53F78-86E4-427B-8190-54C4A0D4FDD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF53F78-86E4-427B-8190-54C4A0D4FDD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9945E-56ED-4967-BDFE-132A312B9442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9945E-56ED-4967-BDFE-132A312B9442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A4055-AABC-4F3D-8EAF-A3BBC8855D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A4055-AABC-4F3D-8EAF-A3BBC8855D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCD4D3-F392-4920-B09D-81E29D910F20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3705" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1489,7 +1489,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1591,34 +1591,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -1654,16 +1654,16 @@
         <v>27</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="X4">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1705,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>27</v>
       </c>
       <c r="W5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
@@ -1819,16 +1819,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>27</v>
@@ -1885,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="X6">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Y6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCD4D3-F392-4920-B09D-81E29D910F20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF6280-67C0-4953-BCE3-5D0CCA83CD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="135">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -837,6 +837,65 @@
   </si>
   <si>
     <t>blackcurrant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>elder_flower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CatGrave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まもり猫のお墓</t>
+    <rPh sb="3" eb="4">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：少し暗いが、日が差し込む森</t>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>belg_harerubos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酒場</t>
+    <rPh sb="0" eb="2">
+      <t>サカバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bar</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1220,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1359,29 +1418,29 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1480,10 +1539,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1579,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.4">
@@ -1591,19 +1650,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1654,16 +1713,16 @@
         <v>27</v>
       </c>
       <c r="W4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1705,19 +1764,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1768,16 +1827,16 @@
         <v>27</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="X5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1807,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
@@ -1819,16 +1878,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1837,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
         <v>27</v>
@@ -1885,13 +1944,13 @@
         <v>10</v>
       </c>
       <c r="X6">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1921,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -1933,19 +1992,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1960,19 +2019,19 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -1990,28 +2049,28 @@
         <v>27</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2026,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AH7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -2047,16 +2106,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2065,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2074,10 +2133,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -2086,10 +2145,10 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2104,31 +2163,31 @@
         <v>27</v>
       </c>
       <c r="U8" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X8">
         <v>15</v>
       </c>
       <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
         <v>15</v>
       </c>
-      <c r="Z8">
-        <v>10</v>
-      </c>
       <c r="AA8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB8">
         <v>10</v>
       </c>
       <c r="AC8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2140,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AH8">
         <v>10</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s">
         <v>89</v>
       </c>
       <c r="AK8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2161,22 +2220,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2188,22 +2247,22 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -2218,19 +2277,19 @@
         <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="W9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -2242,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2254,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AH9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="s">
         <v>89</v>
       </c>
       <c r="AK9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -2278,19 +2337,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2302,19 +2361,19 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -2332,28 +2391,28 @@
         <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="W10">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="X10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2368,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AH10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s">
         <v>89</v>
       </c>
       <c r="AK10" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2389,16 +2448,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2416,19 +2475,19 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -2446,28 +2505,28 @@
         <v>27</v>
       </c>
       <c r="U11" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="W11">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="X11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2482,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH11">
         <v>5</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AK11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -2503,22 +2562,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2530,16 +2589,16 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
         <v>27</v>
@@ -2560,25 +2619,25 @@
         <v>27</v>
       </c>
       <c r="U12" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="V12" t="s">
         <v>27</v>
       </c>
       <c r="W12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="X12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2605,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AK12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -2617,22 +2676,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2644,16 +2703,16 @@
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
@@ -2674,25 +2733,25 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="V13" t="s">
         <v>27</v>
       </c>
       <c r="W13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="X13">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
         <v>20</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2719,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -2731,22 +2790,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2758,16 +2817,16 @@
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -2788,25 +2847,25 @@
         <v>27</v>
       </c>
       <c r="U14" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s">
         <v>27</v>
       </c>
       <c r="W14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X14">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2833,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -2848,19 +2907,19 @@
         <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2872,13 +2931,13 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -2902,22 +2961,22 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
       </c>
       <c r="W15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X15">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2947,9 +3006,237 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16">
+        <v>60</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>95</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>89</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17">
+        <v>60</v>
+      </c>
+      <c r="X17">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>95</v>
+      </c>
+      <c r="AH17">
+        <v>5</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK17" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF6280-67C0-4953-BCE3-5D0CCA83CD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD542899-BB92-474D-872E-D01CC54C74E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="140">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -483,14 +483,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>town2_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>lake_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Shop</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -569,10 +561,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>hill_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HimawariHill</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -896,6 +884,38 @@
   </si>
   <si>
     <t>Bar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_orange_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>berryfarm_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>waterfall_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>town2_gray_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lake_purple_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberrygarden_icon_mini</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>catgrave_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1282,7 +1302,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1329,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1347,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>9</v>
@@ -1386,19 +1406,19 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>16</v>
@@ -1410,10 +1430,10 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
@@ -1422,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1524,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
@@ -1539,16 +1559,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1650,19 +1670,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1752,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1770,13 +1790,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1866,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
@@ -1878,19 +1898,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2094,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -2115,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2142,10 +2162,10 @@
         <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
@@ -2166,7 +2186,7 @@
         <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W8">
         <v>20</v>
@@ -2208,10 +2228,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" t="s">
         <v>89</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2220,16 +2240,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2247,22 +2267,22 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -2277,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
         <v>27</v>
@@ -2322,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -2334,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2370,10 +2390,10 @@
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -2394,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W10">
         <v>20</v>
@@ -2436,10 +2456,10 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AK10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2448,16 +2468,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2475,40 +2495,40 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
         <v>122</v>
-      </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s">
-        <v>125</v>
       </c>
       <c r="W11">
         <v>40</v>
@@ -2550,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK11" t="s">
         <v>89</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -2664,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK12" t="s">
         <v>89</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -2676,16 +2696,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2703,16 +2723,16 @@
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
@@ -2778,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -2790,13 +2810,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2817,37 +2837,37 @@
         <v>26</v>
       </c>
       <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>77</v>
       </c>
       <c r="V14" t="s">
         <v>27</v>
@@ -2892,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -2904,13 +2924,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -2931,11 +2951,11 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" t="s">
-        <v>83</v>
-      </c>
       <c r="M15" t="s">
         <v>27</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -3006,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AK15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
@@ -3018,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -3120,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK16" t="s">
         <v>89</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
@@ -3132,7 +3152,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -3234,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK17" t="s">
         <v>89</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD542899-BB92-474D-872E-D01CC54C74E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F027E-32B1-45D1-AB23-675383A26116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -621,18 +621,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>03l</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>4_himawarihill_600_300</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>himawari_sample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2_ido_a_600_300</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,10 +634,6 @@
   </si>
   <si>
     <t>5_lavender_field_600_300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>450-20170710225117319536</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -785,10 +773,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>nexfan_01_800_600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ストロベリーガーデン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -916,6 +900,26 @@
   </si>
   <si>
     <t>catgrave_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ido_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Forest_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HimawariHill_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strawberry_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender_BG</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1302,7 +1306,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1349,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1442,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1544,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
@@ -1559,10 +1563,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1670,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -1772,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1886,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
@@ -1898,16 +1902,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2114,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -2135,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2165,7 +2169,7 @@
         <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
@@ -2231,7 +2235,7 @@
         <v>86</v>
       </c>
       <c r="AK8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2240,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2249,7 +2253,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2279,10 +2283,10 @@
         <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -2345,7 +2349,7 @@
         <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -2354,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2393,7 +2397,7 @@
         <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -2459,7 +2463,7 @@
         <v>86</v>
       </c>
       <c r="AK10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2468,22 +2472,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2498,16 +2502,16 @@
         <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s">
         <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -2528,7 +2532,7 @@
         <v>73</v>
       </c>
       <c r="V11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W11">
         <v>40</v>
@@ -2696,22 +2700,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2732,7 +2736,7 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
@@ -2798,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -2810,13 +2814,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2825,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2846,7 +2850,7 @@
         <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -2915,7 +2919,7 @@
         <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -2924,13 +2928,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -2939,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3026,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK15" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
@@ -3038,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -3152,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F027E-32B1-45D1-AB23-675383A26116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9BB8D2-E6EA-4C94-A127-CB275B328283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="145">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -920,6 +920,22 @@
   </si>
   <si>
     <t>Lavender_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hydrangea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>violette</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>green_apple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pear</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1305,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2739,7 +2755,7 @@
         <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s">
         <v>27</v>
@@ -2757,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="V13" t="s">
         <v>27</v>
@@ -2772,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="Z13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA13">
+        <v>8</v>
+      </c>
+      <c r="AB13">
         <v>5</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2961,7 +2977,7 @@
         <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -2985,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -2997,10 +3013,10 @@
         <v>40</v>
       </c>
       <c r="Y15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9BB8D2-E6EA-4C94-A127-CB275B328283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639F0E4-42FC-483B-95EA-8D473DA518F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3540" yWindow="3540" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AH11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI11">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639F0E4-42FC-483B-95EA-8D473DA518F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B1FEB-8102-475E-B502-1EEA60826B14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3540" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2212,16 +2212,16 @@
         <v>20</v>
       </c>
       <c r="X8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y8">
         <v>20</v>
       </c>
       <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
         <v>15</v>
-      </c>
-      <c r="AA8">
-        <v>20</v>
       </c>
       <c r="AB8">
         <v>10</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AH8">
         <v>10</v>
       </c>
       <c r="AI8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="s">
         <v>86</v>
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AH10">
         <v>10</v>
       </c>
       <c r="AI10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="s">
         <v>86</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B1FEB-8102-475E-B502-1EEA60826B14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3640AD59-F133-4710-BE1C-7375EFF515A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,10 +647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ショップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mnkuhi471565673986</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -860,82 +856,89 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>酒場</t>
+    <t>Bar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_orange_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>berryfarm_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>waterfall_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>town2_gray_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lake_purple_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberrygarden_icon_mini</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>catgrave_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ido_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Forest_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HimawariHill_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strawberry_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hydrangea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>violette</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>green_apple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酒場「ラ・テ～ル」</t>
     <rPh sb="0" eb="2">
       <t>サカバ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Bar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>oldhouse_orange_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>berryfarm_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>waterfall_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>town2_gray_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>lake_purple_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>himawari_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>strawberrygarden_icon_mini</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>catgrave_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ido_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Forest_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HimawariHill_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Strawberry_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Lavender_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>hydrangea</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>violette</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>green_apple</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pear</t>
+    <t>ショップ「ショパンの夢」</t>
+    <rPh sb="10" eb="11">
+      <t>ユメ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1321,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1369,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1462,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1579,10 +1582,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1690,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1918,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2137,7 +2140,7 @@
         <v>92</v>
       </c>
       <c r="AK7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -2155,7 +2158,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2185,7 +2188,7 @@
         <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
@@ -2251,7 +2254,7 @@
         <v>86</v>
       </c>
       <c r="AK8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -2260,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2269,7 +2272,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2299,10 +2302,10 @@
         <v>71</v>
       </c>
       <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s">
         <v>106</v>
-      </c>
-      <c r="P9" t="s">
-        <v>107</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -2365,7 +2368,7 @@
         <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -2374,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2413,7 +2416,7 @@
         <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -2479,7 +2482,7 @@
         <v>86</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -2488,16 +2491,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
       </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2518,16 +2521,16 @@
         <v>83</v>
       </c>
       <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s">
         <v>115</v>
-      </c>
-      <c r="M11" t="s">
-        <v>116</v>
       </c>
       <c r="N11" t="s">
         <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -2548,7 +2551,7 @@
         <v>73</v>
       </c>
       <c r="V11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W11">
         <v>40</v>
@@ -2716,16 +2719,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2752,10 +2755,10 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s">
         <v>27</v>
@@ -2773,7 +2776,7 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V13" t="s">
         <v>27</v>
@@ -2821,7 +2824,7 @@
         <v>94</v>
       </c>
       <c r="AK13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -2830,13 +2833,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2866,7 +2869,7 @@
         <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -2935,7 +2938,7 @@
         <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -2944,13 +2947,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -2977,7 +2980,7 @@
         <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -3001,7 +3004,7 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -3049,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="AK15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
@@ -3058,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -3172,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3640AD59-F133-4710-BE1C-7375EFF515A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F5C9A-2E68-4595-B661-0E018E4FBEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="146">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -940,6 +940,10 @@
       <t>ユメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>place_hp</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1322,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1335,18 +1339,18 @@
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="9" width="6.75" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="19" max="19" width="10.25" customWidth="1"/>
-    <col min="21" max="21" width="14.5" customWidth="1"/>
-    <col min="22" max="22" width="14.125" customWidth="1"/>
-    <col min="33" max="34" width="14" customWidth="1"/>
-    <col min="35" max="35" width="13.625" customWidth="1"/>
+    <col min="7" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="34" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,97 +1373,100 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
@@ -1483,17 +1490,17 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
@@ -1527,11 +1534,11 @@
       <c r="V2" t="s">
         <v>27</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
         <v>10</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
       </c>
       <c r="Y2">
         <v>30</v>
@@ -1540,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1558,22 +1565,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>95</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>93</v>
+      <c r="AJ2">
+        <v>0</v>
       </c>
       <c r="AK2" t="s">
         <v>93</v>
       </c>
+      <c r="AL2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1597,17 +1607,17 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
         <v>27</v>
       </c>
@@ -1641,11 +1651,11 @@
       <c r="V3" t="s">
         <v>27</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
         <v>10</v>
-      </c>
-      <c r="X3">
-        <v>30</v>
       </c>
       <c r="Y3">
         <v>30</v>
@@ -1654,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1672,22 +1682,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>95</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>5</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>27</v>
+      <c r="AJ3">
+        <v>0</v>
       </c>
       <c r="AK3" t="s">
         <v>27</v>
       </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1716,12 +1729,12 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
@@ -1755,11 +1768,11 @@
       <c r="V4" t="s">
         <v>27</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
         <v>10</v>
-      </c>
-      <c r="X4">
-        <v>30</v>
       </c>
       <c r="Y4">
         <v>30</v>
@@ -1768,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1786,22 +1799,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>95</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>5</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>93</v>
+      <c r="AJ4">
+        <v>0</v>
       </c>
       <c r="AK4" t="s">
         <v>93</v>
       </c>
+      <c r="AL4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1830,12 +1846,12 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
@@ -1869,21 +1885,21 @@
       <c r="V5" t="s">
         <v>27</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
         <v>60</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>25</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>12</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
@@ -1900,22 +1916,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>95</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>5</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>93</v>
+      <c r="AJ5">
+        <v>0</v>
       </c>
       <c r="AK5" t="s">
         <v>93</v>
       </c>
+      <c r="AL5" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1944,12 +1963,12 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
       <c r="L6" t="s">
         <v>27</v>
       </c>
@@ -1983,11 +2002,11 @@
       <c r="V6" t="s">
         <v>27</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
         <v>10</v>
-      </c>
-      <c r="X6">
-        <v>30</v>
       </c>
       <c r="Y6">
         <v>30</v>
@@ -1996,7 +2015,7 @@
         <v>30</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2014,22 +2033,25 @@
         <v>0</v>
       </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>95</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>5</v>
       </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>27</v>
+      <c r="AJ6">
+        <v>0</v>
       </c>
       <c r="AK6" t="s">
         <v>27</v>
       </c>
+      <c r="AL6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2058,15 +2080,15 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
       <c r="M7" t="s">
         <v>27</v>
       </c>
@@ -2097,15 +2119,15 @@
       <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7">
         <v>10</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>90</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
@@ -2128,22 +2150,25 @@
         <v>0</v>
       </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>95</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
         <v>92</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2172,27 +2197,27 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>71</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>109</v>
       </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
@@ -2206,32 +2231,32 @@
         <v>27</v>
       </c>
       <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>85</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>20</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>20</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>10</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>15</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>10</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
@@ -2242,22 +2267,25 @@
         <v>0</v>
       </c>
       <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>83</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>10</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>7</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2281,35 +2309,35 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>71</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>105</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
       <c r="R9" t="s">
         <v>27</v>
       </c>
@@ -2320,22 +2348,22 @@
         <v>27</v>
       </c>
       <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9">
         <v>25</v>
-      </c>
-      <c r="X9">
-        <v>15</v>
       </c>
       <c r="Y9">
         <v>15</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA9">
         <v>10</v>
@@ -2344,11 +2372,11 @@
         <v>10</v>
       </c>
       <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
         <v>15</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
@@ -2356,22 +2384,25 @@
         <v>0</v>
       </c>
       <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>90</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>10</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
         <v>86</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2395,32 +2426,32 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>71</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>109</v>
       </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
@@ -2434,32 +2465,32 @@
         <v>27</v>
       </c>
       <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>85</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>20</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>15</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>20</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>15</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>20</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>10</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -2470,22 +2501,25 @@
         <v>0</v>
       </c>
       <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>83</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>10</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>7</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>86</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2509,32 +2543,32 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>83</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>114</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>75</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>118</v>
       </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
       <c r="Q11" t="s">
         <v>27</v>
       </c>
@@ -2548,19 +2582,19 @@
         <v>27</v>
       </c>
       <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
         <v>73</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>117</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>40</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>20</v>
-      </c>
-      <c r="Y11">
-        <v>10</v>
       </c>
       <c r="Z11">
         <v>10</v>
@@ -2572,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2584,22 +2618,25 @@
         <v>0</v>
       </c>
       <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>89</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>10</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>86</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2623,26 +2660,26 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
       <c r="O12" t="s">
         <v>27</v>
       </c>
@@ -2667,21 +2704,21 @@
       <c r="V12" t="s">
         <v>27</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12">
         <v>60</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>25</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>12</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
       <c r="AB12">
         <v>0</v>
       </c>
@@ -2698,22 +2735,25 @@
         <v>0</v>
       </c>
       <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>95</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>5</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
         <v>86</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2737,32 +2777,32 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>119</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>140</v>
       </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
       <c r="Q13" t="s">
         <v>27</v>
       </c>
@@ -2776,32 +2816,32 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
         <v>139</v>
       </c>
-      <c r="V13" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13">
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13">
         <v>48</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>25</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>12</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>8</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>5</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
         <v>0</v>
       </c>
@@ -2812,22 +2852,25 @@
         <v>0</v>
       </c>
       <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>95</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>5</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
         <v>94</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2851,29 +2894,29 @@
         <v>200</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>83</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>74</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>116</v>
       </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
       <c r="P14" t="s">
         <v>27</v>
       </c>
@@ -2890,29 +2933,29 @@
         <v>27</v>
       </c>
       <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
         <v>75</v>
       </c>
-      <c r="V14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14">
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14">
         <v>40</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>35</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>10</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>10</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
         <v>0</v>
       </c>
@@ -2926,22 +2969,25 @@
         <v>0</v>
       </c>
       <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
         <v>95</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>5</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2965,26 +3011,26 @@
         <v>150</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>26</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>77</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>141</v>
       </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
       <c r="O15" t="s">
         <v>27</v>
       </c>
@@ -3004,26 +3050,26 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
         <v>142</v>
       </c>
-      <c r="V15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15">
-        <v>40</v>
+      <c r="W15" t="s">
+        <v>27</v>
       </c>
       <c r="X15">
         <v>40</v>
       </c>
       <c r="Y15">
+        <v>40</v>
+      </c>
+      <c r="Z15">
         <v>15</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>0</v>
       </c>
@@ -3040,22 +3086,25 @@
         <v>0</v>
       </c>
       <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>95</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>5</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
         <v>91</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3079,26 +3128,26 @@
         <v>300</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>25</v>
       </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
       <c r="O16" t="s">
         <v>27</v>
       </c>
@@ -3123,21 +3172,21 @@
       <c r="V16" t="s">
         <v>27</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16">
         <v>60</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>25</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>12</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
       <c r="AB16">
         <v>0</v>
       </c>
@@ -3154,22 +3203,25 @@
         <v>0</v>
       </c>
       <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>95</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>5</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
         <v>86</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3193,26 +3245,26 @@
         <v>300</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>24</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>25</v>
       </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
       <c r="O17" t="s">
         <v>27</v>
       </c>
@@ -3237,21 +3289,21 @@
       <c r="V17" t="s">
         <v>27</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17">
         <v>60</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>25</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>12</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>0</v>
       </c>
@@ -3268,18 +3320,21 @@
         <v>0</v>
       </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>95</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>5</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
         <v>86</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F5C9A-2E68-4595-B661-0E018E4FBEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CACF71-35A3-493E-8F4C-5497A23464D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -647,10 +647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>mnkuhi471565673986</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Emerald_Shop</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -852,10 +848,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>belg_harerubos</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Bar</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -921,10 +913,6 @@
   </si>
   <si>
     <t>green_apple</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pear</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -944,6 +932,26 @@
   <si>
     <t>place_hp</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CatGrave_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BirdSanctuali_BG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>honey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rich_komugiko</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>star_powder</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1328,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1373,13 +1381,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1472,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1592,10 +1600,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1706,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1940,16 +1948,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2165,7 +2173,7 @@
         <v>92</v>
       </c>
       <c r="AL7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
@@ -2183,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2216,7 +2224,7 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2282,7 +2290,7 @@
         <v>86</v>
       </c>
       <c r="AL8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
@@ -2291,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2300,7 +2308,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2333,10 +2341,10 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" t="s">
         <v>105</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>106</v>
       </c>
       <c r="R9" t="s">
         <v>27</v>
@@ -2399,7 +2407,7 @@
         <v>86</v>
       </c>
       <c r="AL9" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2408,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2438,19 +2446,19 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s">
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
@@ -2468,10 +2476,10 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="X10">
         <v>20</v>
@@ -2483,10 +2491,10 @@
         <v>20</v>
       </c>
       <c r="AA10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC10">
         <v>10</v>
@@ -2504,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="s">
         <v>86</v>
       </c>
       <c r="AL10" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -2525,16 +2533,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2558,16 +2566,16 @@
         <v>83</v>
       </c>
       <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
         <v>114</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -2588,7 +2596,7 @@
         <v>73</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X11">
         <v>40</v>
@@ -2759,16 +2767,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2798,10 +2806,10 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -2819,7 +2827,7 @@
         <v>27</v>
       </c>
       <c r="V13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
@@ -2867,7 +2875,7 @@
         <v>94</v>
       </c>
       <c r="AL13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
@@ -2876,13 +2884,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2915,7 +2923,7 @@
         <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
@@ -2984,7 +2992,7 @@
         <v>90</v>
       </c>
       <c r="AL14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
@@ -2993,13 +3001,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -3026,10 +3034,10 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
@@ -3053,7 +3061,7 @@
         <v>27</v>
       </c>
       <c r="V15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
@@ -3089,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3101,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="AL15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
@@ -3110,7 +3118,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -3227,7 +3235,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CACF71-35A3-493E-8F4C-5497A23464D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85832A16-23C8-4E8B-B9DF-132676EC691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4080" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2485,19 +2485,19 @@
         <v>20</v>
       </c>
       <c r="Y10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AC10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ10">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85832A16-23C8-4E8B-B9DF-132676EC691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE4900-2A19-4B81-82E7-FDCEBF2A4ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="6525" yWindow="2505" windowWidth="21195" windowHeight="10845" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -923,13 +923,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ショップ「ショパンの夢」</t>
-    <rPh sb="10" eb="11">
-      <t>ユメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>place_hp</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -951,6 +944,10 @@
   </si>
   <si>
     <t>star_powder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップ「ショパン」</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1336,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1381,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1486,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -2407,7 +2404,7 @@
         <v>86</v>
       </c>
       <c r="AL9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2476,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2524,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="AL10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -3034,7 +3031,7 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
         <v>139</v>
@@ -3061,7 +3058,7 @@
         <v>27</v>
       </c>
       <c r="V15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE4900-2A19-4B81-82E7-FDCEBF2A4ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2169D-40C0-4BA1-9159-DE4D34705223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2505" windowWidth="21195" windowHeight="10845" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3735" yWindow="2760" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2169D-40C0-4BA1-9159-DE4D34705223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524F2F9-E1B3-41D3-938A-B1AA827C9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2760" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ショップ「ショパン」</t>
+    <t>ショップ「プリンのお菓子店」</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524F2F9-E1B3-41D3-938A-B1AA827C9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B2379-740B-4B64-BEAF-7D5741609500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,13 +680,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アメジストの湖</t>
-    <rPh sb="6" eb="7">
-      <t>ミズウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>place_type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -948,6 +941,13 @@
   </si>
   <si>
     <t>ショップ「プリンのお菓子店」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アメジストの庭</t>
+    <rPh sb="6" eb="7">
+      <t>ニワ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1378,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1597,10 +1597,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1711,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2170,7 +2170,7 @@
         <v>92</v>
       </c>
       <c r="AL7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
@@ -2188,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2221,7 +2221,7 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2287,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="AL8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
@@ -2296,7 +2296,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2305,7 +2305,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2338,10 +2338,10 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" t="s">
         <v>104</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>105</v>
       </c>
       <c r="R9" t="s">
         <v>27</v>
@@ -2404,7 +2404,7 @@
         <v>86</v>
       </c>
       <c r="AL9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2413,13 +2413,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2446,16 +2446,16 @@
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
@@ -2473,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2521,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="AL10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -2530,16 +2530,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2563,16 +2563,16 @@
         <v>83</v>
       </c>
       <c r="M11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -2593,7 +2593,7 @@
         <v>73</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X11">
         <v>40</v>
@@ -2764,16 +2764,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2803,10 +2803,10 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -2824,7 +2824,7 @@
         <v>27</v>
       </c>
       <c r="V13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
@@ -2872,7 +2872,7 @@
         <v>94</v>
       </c>
       <c r="AL13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
@@ -2881,13 +2881,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2920,7 +2920,7 @@
         <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
@@ -2989,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="AL14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
@@ -2998,13 +2998,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -3031,34 +3031,34 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
         <v>144</v>
-      </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" t="s">
-        <v>145</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
@@ -3106,7 +3106,7 @@
         <v>91</v>
       </c>
       <c r="AL15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B2379-740B-4B64-BEAF-7D5741609500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9FAC2-3994-4A0A-BFD1-257263F2833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2833,7 +2833,7 @@
         <v>48</v>
       </c>
       <c r="Y13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z13">
         <v>2</v>
@@ -2845,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="AC13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9FAC2-3994-4A0A-BFD1-257263F2833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D20B00-60ED-407E-A49C-FA0309C3247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2175" yWindow="1545" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="147">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -574,10 +574,6 @@
   </si>
   <si>
     <t>バードサンクチュアリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>banana</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1333,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1378,13 +1374,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1465,10 +1461,10 @@
         <v>32</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
@@ -1477,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1582,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
@@ -1597,10 +1593,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1711,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -1816,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
@@ -1933,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
@@ -1945,16 +1941,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2167,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
@@ -2188,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2221,7 +2217,7 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -2242,7 +2238,7 @@
         <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X8">
         <v>20</v>
@@ -2284,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="AK8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
@@ -2296,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2305,7 +2301,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2326,7 +2322,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>74</v>
@@ -2338,11 +2334,11 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" t="s">
         <v>103</v>
       </c>
-      <c r="Q9" t="s">
-        <v>104</v>
-      </c>
       <c r="R9" t="s">
         <v>27</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>27</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
         <v>27</v>
@@ -2365,13 +2361,13 @@
         <v>25</v>
       </c>
       <c r="Y9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -2380,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="AD9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2401,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2413,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2443,19 +2439,19 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s">
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
@@ -2473,7 +2469,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2518,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -2530,16 +2526,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
         <v>110</v>
       </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2560,19 +2556,19 @@
         <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -2593,7 +2589,7 @@
         <v>73</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X11">
         <v>40</v>
@@ -2635,10 +2631,10 @@
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
@@ -2752,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
@@ -2764,16 +2760,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2794,7 +2790,7 @@
         <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
         <v>74</v>
@@ -2803,10 +2799,10 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -2824,7 +2820,7 @@
         <v>27</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
@@ -2869,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
@@ -2881,13 +2877,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2914,13 +2910,13 @@
         <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
         <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
@@ -2986,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
@@ -2998,13 +2994,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -3031,34 +3027,34 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
         <v>143</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" t="s">
-        <v>144</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
@@ -3103,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
@@ -3115,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -3220,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
@@ -3232,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -3337,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D20B00-60ED-407E-A49C-FA0309C3247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFE8C1-96C6-48E4-81E2-851A78337416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1545" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1755" yWindow="1785" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -944,6 +944,18 @@
     <rPh sb="6" eb="7">
       <t>ニワ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jasmin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pear</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1329,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2823,7 +2835,7 @@
         <v>135</v>
       </c>
       <c r="W13" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="X13">
         <v>48</v>
@@ -2859,10 +2871,10 @@
         <v>95</v>
       </c>
       <c r="AI13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="s">
         <v>93</v>
@@ -2940,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="W14" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="X14">
         <v>40</v>
@@ -2973,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AI14">
         <v>5</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK14" t="s">
         <v>89</v>
@@ -3033,7 +3045,7 @@
         <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>
@@ -3063,7 +3075,7 @@
         <v>40</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z15">
         <v>15</v>
@@ -3072,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFE8C1-96C6-48E4-81E2-851A78337416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C154AE4-DBC1-45AC-BB06-138D23503E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1785" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3135" yWindow="1065" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -925,10 +925,6 @@
   </si>
   <si>
     <t>honey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rich_komugiko</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1341,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1491,7 +1487,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -2256,19 +2252,19 @@
         <v>20</v>
       </c>
       <c r="Y8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB8">
         <v>15</v>
       </c>
       <c r="AC8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2370,7 +2366,7 @@
         <v>27</v>
       </c>
       <c r="X9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Y9">
         <v>20</v>
@@ -2379,7 +2375,7 @@
         <v>18</v>
       </c>
       <c r="AA9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -2388,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2481,7 +2477,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2778,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
         <v>105</v>
@@ -2835,7 +2831,7 @@
         <v>135</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X13">
         <v>48</v>
@@ -2952,7 +2948,7 @@
         <v>75</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X14">
         <v>40</v>
@@ -3045,7 +3041,7 @@
         <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>
@@ -3066,7 +3062,7 @@
         <v>27</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C154AE4-DBC1-45AC-BB06-138D23503E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F4232-E134-4232-BDD8-D573FEEF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1065" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3825" yWindow="1755" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F4232-E134-4232-BDD8-D573FEEF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11497D45-66D1-4253-B83A-0276DF341ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1755" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2552,7 +2552,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>200</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>150</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11497D45-66D1-4253-B83A-0276DF341ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E52D14-9834-41A5-A37D-6E709EDB8E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AI10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AB13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E52D14-9834-41A5-A37D-6E709EDB8E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1E74A-384A-4FA3-95EA-62D7B462539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1E74A-384A-4FA3-95EA-62D7B462539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC66F54-595A-42BF-AE65-842FDF745D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3600" yWindow="1590" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -952,6 +952,10 @@
   </si>
   <si>
     <t>pear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>murasaki_mushroom</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1337,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2228,7 +2232,7 @@
         <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="R8" t="s">
         <v>27</v>
@@ -2261,13 +2265,13 @@
         <v>13</v>
       </c>
       <c r="AB8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC8">
         <v>15</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE8">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC66F54-595A-42BF-AE65-842FDF745D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C1EA0-3AA9-40EE-9A28-E73C93904DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1590" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>怪しげな館</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>place_type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,6 +952,10 @@
   </si>
   <si>
     <t>murasaki_mushroom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルショップ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1386,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1605,10 +1605,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1959,7 +1959,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
         <v>96</v>
@@ -2178,7 +2178,7 @@
         <v>91</v>
       </c>
       <c r="AL7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
@@ -2196,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" t="s">
         <v>27</v>
@@ -2295,7 +2295,7 @@
         <v>85</v>
       </c>
       <c r="AL8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
@@ -2304,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2313,7 +2313,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2346,10 +2346,10 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
         <v>102</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>103</v>
       </c>
       <c r="R9" t="s">
         <v>27</v>
@@ -2412,7 +2412,7 @@
         <v>85</v>
       </c>
       <c r="AL9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2421,13 +2421,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2454,16 +2454,16 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
@@ -2481,7 +2481,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2529,7 +2529,7 @@
         <v>85</v>
       </c>
       <c r="AL10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -2538,16 +2538,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2571,16 +2571,16 @@
         <v>82</v>
       </c>
       <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
         <v>111</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -2601,7 +2601,7 @@
         <v>73</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X11">
         <v>40</v>
@@ -2772,16 +2772,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2811,10 +2811,10 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -2832,10 +2832,10 @@
         <v>27</v>
       </c>
       <c r="V13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X13">
         <v>48</v>
@@ -2880,7 +2880,7 @@
         <v>93</v>
       </c>
       <c r="AL13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
@@ -2889,13 +2889,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -2928,7 +2928,7 @@
         <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
@@ -2952,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X14">
         <v>40</v>
@@ -2997,7 +2997,7 @@
         <v>89</v>
       </c>
       <c r="AL14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
@@ -3006,13 +3006,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -3039,13 +3039,13 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>
@@ -3114,7 +3114,7 @@
         <v>90</v>
       </c>
       <c r="AL15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C1EA0-3AA9-40EE-9A28-E73C93904DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D17D797-E517-47F4-9D8B-366108D30A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D17D797-E517-47F4-9D8B-366108D30A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF9B0A-C7CD-43BD-A8AC-4AC29FA26B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2475" yWindow="1155" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2868,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AI13">
         <v>4</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK13" t="s">
         <v>93</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF9B0A-C7CD-43BD-A8AC-4AC29FA26B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC4510-3F85-45FA-B926-11F2FD3AFD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1155" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="1035" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC4510-3F85-45FA-B926-11F2FD3AFD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08A0EC-D342-4E70-8EFB-5D429192702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1035" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3420" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI11">
         <v>10</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="s">
         <v>85</v>
@@ -2868,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="s">
         <v>93</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="s">
         <v>89</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08A0EC-D342-4E70-8EFB-5D429192702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D6DCA-9740-4FC8-89D8-639FD4830797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1497,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>59</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>53</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D6DCA-9740-4FC8-89D8-639FD4830797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B06525-2076-4193-B4FB-5C4B2133BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3690" yWindow="1530" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B06525-2076-4193-B4FB-5C4B2133BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785C77B-7897-42B6-BC3B-27128DC91AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3690" yWindow="1530" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785C77B-7897-42B6-BC3B-27128DC91AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7126FB6-4E2F-4B65-8628-2476957230E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3780" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,10 +885,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Lavender_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hydrangea</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,6 +952,10 @@
   </si>
   <si>
     <t>エメラルショップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender_BG2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1491,7 +1491,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1608,7 +1608,7 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1959,7 +1959,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
         <v>96</v>
@@ -2232,7 +2232,7 @@
         <v>105</v>
       </c>
       <c r="Q8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R8" t="s">
         <v>27</v>
@@ -2412,7 +2412,7 @@
         <v>85</v>
       </c>
       <c r="AL9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
         <v>71</v>
@@ -2481,7 +2481,7 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -2529,7 +2529,7 @@
         <v>85</v>
       </c>
       <c r="AL10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
@@ -2778,7 +2778,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
         <v>104</v>
@@ -2814,7 +2814,7 @@
         <v>115</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -2832,10 +2832,10 @@
         <v>27</v>
       </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X13">
         <v>48</v>
@@ -2880,7 +2880,7 @@
         <v>93</v>
       </c>
       <c r="AL13" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
@@ -2952,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X14">
         <v>40</v>
@@ -3039,13 +3039,13 @@
         <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7126FB6-4E2F-4B65-8628-2476957230E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC0E55-A5C3-4602-A324-E45A0C4AE955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2430" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -956,6 +956,10 @@
   </si>
   <si>
     <t>Lavender_BG2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kirakira_stone2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1342,7 +1346,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2130,16 +2134,16 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="W7" t="s">
         <v>27</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2166,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC0E55-A5C3-4602-A324-E45A0C4AE955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC3FA6-FB4E-4AD6-81CC-CA851C7721B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3180" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC3FA6-FB4E-4AD6-81CC-CA851C7721B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7F747-A7BA-464B-A331-260FE41AA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="154">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -960,6 +961,21 @@
   </si>
   <si>
     <t>kirakira_stone2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリの採取用DB</t>
+    <rPh sb="4" eb="7">
+      <t>サイシュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>doro_flower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rich_milk</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1345,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3360,4 +3376,2025 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
+  <dimension ref="A1:AL17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="34" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>95</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>95</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>95</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>95</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>95</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>98</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8">
+        <v>12</v>
+      </c>
+      <c r="AA8">
+        <v>13</v>
+      </c>
+      <c r="AB8">
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>83</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>30</v>
+      </c>
+      <c r="AD9">
+        <v>15</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>90</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>30</v>
+      </c>
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>90</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11">
+        <v>40</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>87</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>3</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12">
+        <v>60</v>
+      </c>
+      <c r="Y12">
+        <v>25</v>
+      </c>
+      <c r="Z12">
+        <v>12</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>95</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" t="s">
+        <v>152</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W13" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>27</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>83</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13">
+        <v>7</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14">
+        <v>40</v>
+      </c>
+      <c r="Y14">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>83</v>
+      </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14">
+        <v>7</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15">
+        <v>40</v>
+      </c>
+      <c r="Y15">
+        <v>30</v>
+      </c>
+      <c r="Z15">
+        <v>15</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>10</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>97</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16">
+        <v>60</v>
+      </c>
+      <c r="Y16">
+        <v>25</v>
+      </c>
+      <c r="Z16">
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>95</v>
+      </c>
+      <c r="AI16">
+        <v>5</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17">
+        <v>60</v>
+      </c>
+      <c r="Y17">
+        <v>25</v>
+      </c>
+      <c r="Z17">
+        <v>12</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>95</v>
+      </c>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7F747-A7BA-464B-A331-260FE41AA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B555E1-D428-47EE-A032-67E505B189DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3382,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4393,7 +4393,7 @@
         <v>102</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -4417,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>4</v>
@@ -4429,10 +4429,10 @@
         <v>30</v>
       </c>
       <c r="AD9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF9">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B555E1-D428-47EE-A032-67E505B189DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A25A5-155F-48A7-B518-7F70987B83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3705" yWindow="3870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3382,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4882,7 +4882,7 @@
         <v>25</v>
       </c>
       <c r="Y13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z13">
         <v>2</v>
@@ -4894,16 +4894,16 @@
         <v>13</v>
       </c>
       <c r="AC13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A25A5-155F-48A7-B518-7F70987B83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF006541-C6B5-4813-B3DF-9AD947025A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3675" yWindow="1995" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="158">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -976,6 +976,25 @@
   </si>
   <si>
     <t>rich_milk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナの城下町</t>
+    <rPh sb="7" eb="10">
+      <t>ジョウカマチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Orangina_Castletown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「クープデュモンド」コンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contest_OrA1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1359,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1501,7 +1520,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3368,6 +3387,240 @@
         <v>85</v>
       </c>
       <c r="AL17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18">
+        <v>60</v>
+      </c>
+      <c r="Y18">
+        <v>25</v>
+      </c>
+      <c r="Z18">
+        <v>12</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>95</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19">
+        <v>60</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>12</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>95</v>
+      </c>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3382,7 +3635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF006541-C6B5-4813-B3DF-9AD947025A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6492F8-147A-4849-9150-44170666E79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1995" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3510" yWindow="3495" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,9 +1082,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1122,7 +1122,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1228,7 +1228,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1370,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1536,7 +1536,7 @@
         <v>59</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>59</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>53</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>46</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>54</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>118</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>103</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>45</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>119</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -2706,7 +2706,7 @@
         <v>51</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -2823,7 +2823,7 @@
         <v>104</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -2940,7 +2940,7 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -3057,7 +3057,7 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>150</v>
@@ -3174,7 +3174,7 @@
         <v>48</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>300</v>
@@ -3291,7 +3291,7 @@
         <v>49</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>300</v>
@@ -3408,7 +3408,7 @@
         <v>49</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>49</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6492F8-147A-4849-9150-44170666E79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB963DF0-9B45-4BAB-BD2E-AB4C382B3829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3495" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
+    <sheet name="01_map_Grt_Hikari" sheetId="2" r:id="rId2"/>
+    <sheet name="02_map_Or" sheetId="3" r:id="rId3"/>
+    <sheet name="02_map_Or_Hikari" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="173">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -979,22 +981,118 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オランジーナの城下町</t>
-    <rPh sb="7" eb="10">
-      <t>ジョウカマチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orangina_Castletown</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「クープデュモンド」コンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Contest_OrA1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガレット村ノワゼット家</t>
+    <rPh sb="4" eb="5">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grt_StartCompound</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Shop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Bar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Emerald_Shop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナのヒカリの家</t>
+    <rPh sb="11" eb="12">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナのお菓子店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>read_end</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナ酒場</t>
+    <rPh sb="6" eb="8">
+      <t>サカバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中央噴水広場</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フンスイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒロバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Hiroba1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：ドバイ　パームファウンテン　世界最大の噴水のひとつ</t>
+    <rPh sb="19" eb="23">
+      <t>セカイサイダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フンスイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古めかしい井戸</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春風の森</t>
+    <rPh sb="0" eb="2">
+      <t>ハルカゼ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Orangina_Compound</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Shop_A1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Bar_A1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1378,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1402,7 +1500,7 @@
     <col min="36" max="36" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,10 +1615,13 @@
       <c r="AL1" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1634,8 +1735,11 @@
       <c r="AL2" t="s">
         <v>92</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1751,8 +1855,11 @@
       <c r="AL3" t="s">
         <v>27</v>
       </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1868,8 +1975,11 @@
       <c r="AL4" t="s">
         <v>92</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1985,8 +2095,11 @@
       <c r="AL5" t="s">
         <v>92</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2102,8 +2215,11 @@
       <c r="AL6" t="s">
         <v>27</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2219,8 +2335,11 @@
       <c r="AL7" t="s">
         <v>129</v>
       </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2336,8 +2455,11 @@
       <c r="AL8" t="s">
         <v>130</v>
       </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2453,8 +2575,11 @@
       <c r="AL9" t="s">
         <v>139</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2570,8 +2695,11 @@
       <c r="AL10" t="s">
         <v>138</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2687,8 +2815,11 @@
       <c r="AL11" t="s">
         <v>88</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2804,8 +2935,11 @@
       <c r="AL12" t="s">
         <v>88</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2921,8 +3055,11 @@
       <c r="AL13" t="s">
         <v>149</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3038,8 +3175,11 @@
       <c r="AL14" t="s">
         <v>132</v>
       </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3155,8 +3295,11 @@
       <c r="AL15" t="s">
         <v>131</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3272,8 +3415,11 @@
       <c r="AL16" t="s">
         <v>88</v>
       </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3389,20 +3535,23 @@
       <c r="AL17" t="s">
         <v>88</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -3420,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -3506,122 +3655,8 @@
       <c r="AL18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="AM18">
         <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19">
-        <v>60</v>
-      </c>
-      <c r="Y19">
-        <v>25</v>
-      </c>
-      <c r="Z19">
-        <v>12</v>
-      </c>
-      <c r="AA19">
-        <v>3</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>95</v>
-      </c>
-      <c r="AI19">
-        <v>5</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3633,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3657,7 +3692,7 @@
     <col min="36" max="36" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3772,8 +3807,11 @@
       <c r="AL1" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -3889,10 +3927,13 @@
       <c r="AL2" t="s">
         <v>27</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A18" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4006,8 +4047,11 @@
       <c r="AL3" t="s">
         <v>27</v>
       </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4123,8 +4167,11 @@
       <c r="AL4" t="s">
         <v>27</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4240,8 +4287,11 @@
       <c r="AL5" t="s">
         <v>27</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4357,8 +4407,11 @@
       <c r="AL6" t="s">
         <v>27</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4474,8 +4527,11 @@
       <c r="AL7" t="s">
         <v>129</v>
       </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4591,8 +4647,11 @@
       <c r="AL8" t="s">
         <v>130</v>
       </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4708,8 +4767,11 @@
       <c r="AL9" t="s">
         <v>139</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4825,8 +4887,11 @@
       <c r="AL10" t="s">
         <v>138</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4942,8 +5007,11 @@
       <c r="AL11" t="s">
         <v>88</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5059,8 +5127,11 @@
       <c r="AL12" t="s">
         <v>88</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5176,8 +5247,11 @@
       <c r="AL13" t="s">
         <v>149</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5293,8 +5367,11 @@
       <c r="AL14" t="s">
         <v>132</v>
       </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5410,8 +5487,11 @@
       <c r="AL15" t="s">
         <v>131</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5527,8 +5607,11 @@
       <c r="AL16" t="s">
         <v>88</v>
       </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5643,6 +5726,2593 @@
       </c>
       <c r="AL17" t="s">
         <v>88</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18">
+        <v>60</v>
+      </c>
+      <c r="Y18">
+        <v>25</v>
+      </c>
+      <c r="Z18">
+        <v>12</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>95</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="34" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+100</f>
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>95</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>95</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>95</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>95</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>95</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>98</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>17</v>
+      </c>
+      <c r="AA8">
+        <v>13</v>
+      </c>
+      <c r="AB8">
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <v>15</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>83</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9">
+        <v>60</v>
+      </c>
+      <c r="Y9">
+        <v>25</v>
+      </c>
+      <c r="Z9">
+        <v>12</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>95</v>
+      </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10">
+        <v>60</v>
+      </c>
+      <c r="Y10">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>12</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>95</v>
+      </c>
+      <c r="AI10">
+        <v>5</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="34" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2+100</f>
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>95</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>95</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>95</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>95</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>95</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>98</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>17</v>
+      </c>
+      <c r="AA8">
+        <v>13</v>
+      </c>
+      <c r="AB8">
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <v>15</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>83</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9">
+        <v>60</v>
+      </c>
+      <c r="Y9">
+        <v>25</v>
+      </c>
+      <c r="Z9">
+        <v>12</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>95</v>
+      </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10">
+        <v>60</v>
+      </c>
+      <c r="Y10">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>12</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>95</v>
+      </c>
+      <c r="AI10">
+        <v>5</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB963DF0-9B45-4BAB-BD2E-AB4C382B3829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB71603-101A-4369-849C-D7CE67D3A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="173">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1003,14 +1003,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Or_Shop</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Or_Bar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Or_Emerald_Shop</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1093,6 +1085,20 @@
   </si>
   <si>
     <t>Or_Bar_A1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春エリアコンテスト会場</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Outside_the_Contest</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1616,7 +1622,7 @@
         <v>87</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.4">
@@ -3548,10 +3554,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -3808,7 +3814,7 @@
         <v>87</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.4">
@@ -5740,10 +5746,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -5860,10 +5866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6000,7 +6006,7 @@
         <v>87</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.4">
@@ -6012,10 +6018,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6125,17 +6131,17 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-2+100</f>
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6252,13 +6258,13 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -6270,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -6369,19 +6375,19 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6435,16 +6441,16 @@
         <v>27</v>
       </c>
       <c r="X5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -6489,37 +6495,37 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
@@ -6549,22 +6555,22 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -6585,19 +6591,19 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="AL6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -6609,19 +6615,19 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6639,22 +6645,22 @@
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="R7" t="s">
         <v>27</v>
@@ -6669,31 +6675,31 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -6705,19 +6711,19 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -6729,91 +6735,91 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8">
+        <v>60</v>
+      </c>
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
       <c r="Z8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -6825,19 +6831,19 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="s">
         <v>85</v>
       </c>
       <c r="AL8" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -6849,13 +6855,13 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -6960,126 +6966,6 @@
         <v>88</v>
       </c>
       <c r="AM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10">
-        <v>90</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10">
-        <v>60</v>
-      </c>
-      <c r="Y10">
-        <v>25</v>
-      </c>
-      <c r="Z10">
-        <v>12</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>95</v>
-      </c>
-      <c r="AI10">
-        <v>5</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM10">
         <v>1</v>
       </c>
     </row>
@@ -7092,10 +6978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7232,7 +7118,7 @@
         <v>87</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.4">
@@ -7244,10 +7130,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -7357,17 +7243,17 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-2+100</f>
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -7382,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7484,10 +7370,10 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -7502,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -7601,19 +7487,19 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7667,16 +7553,16 @@
         <v>27</v>
       </c>
       <c r="X5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -7721,37 +7607,37 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
@@ -7781,22 +7667,22 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -7817,19 +7703,19 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="AL6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -7841,19 +7727,19 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>151</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -7871,22 +7757,22 @@
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="R7" t="s">
         <v>27</v>
@@ -7901,31 +7787,31 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -7937,19 +7823,19 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -7961,91 +7847,91 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8">
+        <v>60</v>
+      </c>
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
       <c r="Z8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -8057,19 +7943,19 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="s">
         <v>85</v>
       </c>
       <c r="AL8" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -8081,13 +7967,13 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>151</v>
@@ -8192,126 +8078,6 @@
         <v>88</v>
       </c>
       <c r="AM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10">
-        <v>90</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10">
-        <v>60</v>
-      </c>
-      <c r="Y10">
-        <v>25</v>
-      </c>
-      <c r="Z10">
-        <v>12</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>95</v>
-      </c>
-      <c r="AI10">
-        <v>5</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB71603-101A-4369-849C-D7CE67D3A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F52C19-6CA9-421D-BEFB-4BE092319065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="23310" windowHeight="12720" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="176">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -981,14 +981,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「クープデュモンド」コンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Contest_OrA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ガレット村ノワゼット家</t>
     <rPh sb="4" eb="5">
       <t>ムラ</t>
@@ -1099,6 +1091,32 @@
   </si>
   <si>
     <t>Or_Outside_the_Contest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grt_Station</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガレット駅</t>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Station</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナ駅</t>
+    <rPh sb="6" eb="7">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>place_default_flag</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1482,2199 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AM18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="34" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2">
-        <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
-      </c>
-      <c r="AA2">
-        <v>30</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>95</v>
-      </c>
-      <c r="AI2">
-        <v>5</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
-      </c>
-      <c r="AA3">
-        <v>30</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>95</v>
-      </c>
-      <c r="AI3">
-        <v>5</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4">
-        <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
-      </c>
-      <c r="AA4">
-        <v>30</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>95</v>
-      </c>
-      <c r="AI4">
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5">
-        <v>60</v>
-      </c>
-      <c r="Y5">
-        <v>25</v>
-      </c>
-      <c r="Z5">
-        <v>12</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>95</v>
-      </c>
-      <c r="AI5">
-        <v>5</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>30</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6">
-        <v>30</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>95</v>
-      </c>
-      <c r="AI6">
-        <v>5</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" t="s">
-        <v>150</v>
-      </c>
-      <c r="W7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>100</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>98</v>
-      </c>
-      <c r="AI7">
-        <v>2</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
-      <c r="Z8">
-        <v>17</v>
-      </c>
-      <c r="AA8">
-        <v>13</v>
-      </c>
-      <c r="AB8">
-        <v>8</v>
-      </c>
-      <c r="AC8">
-        <v>15</v>
-      </c>
-      <c r="AD8">
-        <v>7</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>83</v>
-      </c>
-      <c r="AI8">
-        <v>10</v>
-      </c>
-      <c r="AJ8">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9">
-        <v>19</v>
-      </c>
-      <c r="Y9">
-        <v>20</v>
-      </c>
-      <c r="Z9">
-        <v>18</v>
-      </c>
-      <c r="AA9">
-        <v>8</v>
-      </c>
-      <c r="AB9">
-        <v>10</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
-      </c>
-      <c r="AD9">
-        <v>15</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>90</v>
-      </c>
-      <c r="AI9">
-        <v>10</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>141</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10">
-        <v>20</v>
-      </c>
-      <c r="Y10">
-        <v>12</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>5</v>
-      </c>
-      <c r="AB10">
-        <v>40</v>
-      </c>
-      <c r="AC10">
-        <v>13</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>90</v>
-      </c>
-      <c r="AI10">
-        <v>10</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11">
-        <v>40</v>
-      </c>
-      <c r="Y11">
-        <v>20</v>
-      </c>
-      <c r="Z11">
-        <v>10</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
-      </c>
-      <c r="AB11">
-        <v>10</v>
-      </c>
-      <c r="AC11">
-        <v>10</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>87</v>
-      </c>
-      <c r="AI11">
-        <v>10</v>
-      </c>
-      <c r="AJ11">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12">
-        <v>60</v>
-      </c>
-      <c r="Y12">
-        <v>25</v>
-      </c>
-      <c r="Z12">
-        <v>12</v>
-      </c>
-      <c r="AA12">
-        <v>3</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>95</v>
-      </c>
-      <c r="AI12">
-        <v>5</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>115</v>
-      </c>
-      <c r="P13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" t="s">
-        <v>133</v>
-      </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13">
-        <v>48</v>
-      </c>
-      <c r="Y13">
-        <v>15</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>12</v>
-      </c>
-      <c r="AB13">
-        <v>13</v>
-      </c>
-      <c r="AC13">
-        <v>10</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>83</v>
-      </c>
-      <c r="AI13">
-        <v>10</v>
-      </c>
-      <c r="AJ13">
-        <v>7</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14">
-        <v>200</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s">
-        <v>146</v>
-      </c>
-      <c r="X14">
-        <v>40</v>
-      </c>
-      <c r="Y14">
-        <v>35</v>
-      </c>
-      <c r="Z14">
-        <v>10</v>
-      </c>
-      <c r="AA14">
-        <v>5</v>
-      </c>
-      <c r="AB14">
-        <v>10</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>83</v>
-      </c>
-      <c r="AI14">
-        <v>10</v>
-      </c>
-      <c r="AJ14">
-        <v>7</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>150</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15">
-        <v>40</v>
-      </c>
-      <c r="Y15">
-        <v>30</v>
-      </c>
-      <c r="Z15">
-        <v>15</v>
-      </c>
-      <c r="AA15">
-        <v>5</v>
-      </c>
-      <c r="AB15">
-        <v>10</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>97</v>
-      </c>
-      <c r="AI15">
-        <v>3</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16">
-        <v>90</v>
-      </c>
-      <c r="G16">
-        <v>300</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" t="s">
-        <v>27</v>
-      </c>
-      <c r="V16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16">
-        <v>60</v>
-      </c>
-      <c r="Y16">
-        <v>25</v>
-      </c>
-      <c r="Z16">
-        <v>12</v>
-      </c>
-      <c r="AA16">
-        <v>3</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>95</v>
-      </c>
-      <c r="AI16">
-        <v>5</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>90</v>
-      </c>
-      <c r="G17">
-        <v>300</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" t="s">
-        <v>27</v>
-      </c>
-      <c r="V17" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17">
-        <v>60</v>
-      </c>
-      <c r="Y17">
-        <v>25</v>
-      </c>
-      <c r="Z17">
-        <v>12</v>
-      </c>
-      <c r="AA17">
-        <v>3</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>95</v>
-      </c>
-      <c r="AI17">
-        <v>5</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18">
-        <v>90</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18">
-        <v>60</v>
-      </c>
-      <c r="Y18">
-        <v>25</v>
-      </c>
-      <c r="Z18">
-        <v>12</v>
-      </c>
-      <c r="AA18">
-        <v>3</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>95</v>
-      </c>
-      <c r="AI18">
-        <v>5</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -3688,17 +1514,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="34" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.625" customWidth="1"/>
+    <col min="9" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="35" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3727,99 +1553,102 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>161</v>
+      <c r="AN1" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3832,10 +1661,10 @@
         <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3847,14 +1676,14 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
@@ -3888,11 +1717,11 @@
       <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
         <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -3901,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -3919,27 +1748,30 @@
         <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>95</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>27</v>
+      <c r="AK2">
+        <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2">
+        <v>92</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A18" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3952,10 +1784,10 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3969,12 +1801,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
@@ -4008,11 +1840,11 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3">
         <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
       </c>
       <c r="Z3">
         <v>30</v>
@@ -4021,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -4039,25 +1871,28 @@
         <v>0</v>
       </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>95</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>27</v>
+      <c r="AK3">
+        <v>0</v>
       </c>
       <c r="AL3" t="s">
         <v>27</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4072,10 +1907,10 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4089,12 +1924,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
@@ -4128,11 +1963,11 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4">
         <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
       </c>
       <c r="Z4">
         <v>30</v>
@@ -4141,7 +1976,7 @@
         <v>30</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -4159,25 +1994,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>95</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>27</v>
+      <c r="AK4">
+        <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM4">
+        <v>92</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4192,10 +2030,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4209,12 +2047,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
@@ -4248,21 +2086,21 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5">
         <v>60</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>25</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>12</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
         <v>0</v>
       </c>
@@ -4279,25 +2117,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>95</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>27</v>
+      <c r="AK5">
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM5">
+        <v>92</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4312,10 +2153,10 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4329,12 +2170,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
@@ -4368,11 +2209,11 @@
       <c r="W6" t="s">
         <v>27</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6">
         <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>30</v>
       </c>
       <c r="Z6">
         <v>30</v>
@@ -4381,7 +2222,7 @@
         <v>30</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -4399,25 +2240,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>95</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>27</v>
+      <c r="AK6">
+        <v>0</v>
       </c>
       <c r="AL6" t="s">
         <v>27</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4432,10 +2276,10 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4449,15 +2293,15 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" t="s">
         <v>27</v>
       </c>
@@ -4483,20 +2327,20 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
         <v>150</v>
       </c>
-      <c r="W7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+      <c r="X7" t="s">
+        <v>27</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>100</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
@@ -4519,25 +2363,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>98</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
         <v>91</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>129</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4552,10 +2399,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4569,95 +2416,98 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>71</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>147</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
-      <c r="S8" t="s">
+      <c r="X8" t="s">
         <v>84</v>
       </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
         <v>20</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>20</v>
+      </c>
+      <c r="AA8">
+        <v>17</v>
+      </c>
+      <c r="AB8">
+        <v>13</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
         <v>15</v>
       </c>
-      <c r="Z8">
-        <v>12</v>
-      </c>
-      <c r="AA8">
-        <v>13</v>
-      </c>
-      <c r="AB8">
-        <v>8</v>
-      </c>
-      <c r="AC8">
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>83</v>
+      </c>
+      <c r="AJ8">
         <v>10</v>
       </c>
-      <c r="AD8">
+      <c r="AK8">
         <v>7</v>
       </c>
-      <c r="AE8">
-        <v>10</v>
-      </c>
-      <c r="AF8">
-        <v>5</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>83</v>
-      </c>
-      <c r="AI8">
-        <v>10</v>
-      </c>
-      <c r="AJ8">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>85</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>130</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4672,10 +2522,10 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4687,32 +2537,32 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>25</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>102</v>
       </c>
-      <c r="R9" t="s">
-        <v>153</v>
-      </c>
       <c r="S9" t="s">
         <v>27</v>
       </c>
@@ -4723,34 +2573,34 @@
         <v>27</v>
       </c>
       <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
         <v>81</v>
       </c>
-      <c r="W9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9">
         <v>19</v>
       </c>
-      <c r="Y9">
-        <v>12</v>
-      </c>
       <c r="Z9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
         <v>10</v>
       </c>
-      <c r="AC9">
-        <v>30</v>
-      </c>
       <c r="AD9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4759,25 +2609,28 @@
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>90</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>10</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>85</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>139</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4792,10 +2645,10 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4807,29 +2660,29 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>112</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>134</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>71</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" t="s">
-        <v>153</v>
-      </c>
       <c r="R10" t="s">
         <v>27</v>
       </c>
@@ -4843,61 +2696,64 @@
         <v>27</v>
       </c>
       <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
         <v>141</v>
       </c>
-      <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10">
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10">
         <v>20</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>12</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5</v>
       </c>
-      <c r="AB10">
-        <v>30</v>
-      </c>
       <c r="AC10">
+        <v>40</v>
+      </c>
+      <c r="AD10">
         <v>13</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>90</v>
+      </c>
+      <c r="AJ10">
         <v>10</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>90</v>
-      </c>
-      <c r="AI10">
-        <v>10</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
         <v>85</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>138</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4912,10 +2768,10 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -4927,55 +2783,55 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>111</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s">
         <v>113</v>
       </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
         <v>40</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>20</v>
-      </c>
-      <c r="Z11">
-        <v>10</v>
       </c>
       <c r="AA11">
         <v>10</v>
@@ -4984,40 +2840,43 @@
         <v>10</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>87</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
         <v>3</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>87</v>
-      </c>
-      <c r="AI11">
-        <v>10</v>
-      </c>
-      <c r="AJ11">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>85</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>88</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5032,10 +2891,10 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -5047,23 +2906,23 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>24</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>25</v>
       </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
       <c r="P12" t="s">
         <v>27</v>
       </c>
@@ -5088,21 +2947,21 @@
       <c r="W12" t="s">
         <v>27</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12">
         <v>60</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>25</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>12</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
         <v>0</v>
       </c>
@@ -5119,25 +2978,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>95</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
         <v>85</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>88</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5152,10 +3014,10 @@
         <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -5167,97 +3029,100 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>83</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>74</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>36</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>115</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
         <v>133</v>
       </c>
-      <c r="R13" t="s">
+      <c r="X13" t="s">
         <v>144</v>
       </c>
-      <c r="S13" t="s">
-        <v>152</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" t="s">
-        <v>133</v>
-      </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13">
-        <v>25</v>
-      </c>
       <c r="Y13">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Z13">
+        <v>15</v>
+      </c>
+      <c r="AA13">
         <v>2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>12</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>13</v>
       </c>
-      <c r="AC13">
-        <v>8</v>
-      </c>
       <c r="AD13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>83</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>10</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>7</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>93</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>149</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5272,10 +3137,10 @@
         <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -5287,26 +3152,26 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>73</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>82</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>74</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>112</v>
       </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
       <c r="Q14" t="s">
         <v>27</v>
       </c>
@@ -5323,29 +3188,29 @@
         <v>27</v>
       </c>
       <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
         <v>75</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>146</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>40</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>35</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>10</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>10</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
       <c r="AD14">
         <v>0</v>
       </c>
@@ -5359,25 +3224,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>83</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>10</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>7</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>89</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>132</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5392,10 +3260,10 @@
         <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>150</v>
@@ -5407,26 +3275,26 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>77</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>135</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>145</v>
       </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" t="s">
         <v>27</v>
       </c>
@@ -5448,24 +3316,24 @@
       <c r="W15" t="s">
         <v>27</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15">
         <v>40</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>30</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>15</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>5</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>10</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
       <c r="AD15">
         <v>0</v>
       </c>
@@ -5479,25 +3347,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
         <v>97</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>3</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>90</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>131</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5512,10 +3383,10 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>300</v>
@@ -5527,23 +3398,23 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>24</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>25</v>
       </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
@@ -5568,21 +3439,21 @@
       <c r="W16" t="s">
         <v>27</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16">
         <v>60</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>25</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>12</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
         <v>0</v>
       </c>
@@ -5599,25 +3470,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>95</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>85</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>88</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5632,10 +3506,10 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>300</v>
@@ -5647,23 +3521,23 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>24</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>25</v>
       </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
       <c r="P17" t="s">
         <v>27</v>
       </c>
@@ -5688,21 +3562,21 @@
       <c r="W17" t="s">
         <v>27</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17">
         <v>60</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>25</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>12</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
         <v>0</v>
       </c>
@@ -5719,25 +3593,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>95</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>5</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
         <v>85</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>88</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5746,10 +3623,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -5764,16 +3641,2385 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>26</v>
       </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18">
+        <v>60</v>
+      </c>
+      <c r="Z18">
+        <v>25</v>
+      </c>
+      <c r="AA18">
+        <v>12</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>95</v>
+      </c>
+      <c r="AJ18">
+        <v>5</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19">
+        <v>60</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>12</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>95</v>
+      </c>
+      <c r="AJ19">
+        <v>5</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
+  <dimension ref="A1:AN19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="35" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>30</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>95</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" ref="A3:A19" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>30</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>95</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>30</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>95</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5">
+        <v>60</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>95</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>30</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>95</v>
+      </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>98</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>13</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>83</v>
+      </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9">
+        <v>19</v>
+      </c>
+      <c r="Z9">
+        <v>12</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>30</v>
+      </c>
+      <c r="AE9">
+        <v>13</v>
+      </c>
+      <c r="AF9">
+        <v>12</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>90</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" t="s">
+        <v>153</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10">
+        <v>12</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>30</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>90</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>87</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12">
+        <v>60</v>
+      </c>
+      <c r="Z12">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>12</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>95</v>
+      </c>
+      <c r="AJ12">
+        <v>5</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" t="s">
+        <v>152</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>33</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>13</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>83</v>
+      </c>
+      <c r="AJ13">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14">
+        <v>40</v>
+      </c>
+      <c r="Z14">
+        <v>35</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>83</v>
+      </c>
+      <c r="AJ14">
+        <v>10</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15">
+        <v>40</v>
+      </c>
+      <c r="Z15">
+        <v>30</v>
+      </c>
+      <c r="AA15">
+        <v>15</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>97</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16">
+        <v>60</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>95</v>
+      </c>
+      <c r="AJ16">
+        <v>5</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17">
+        <v>60</v>
+      </c>
+      <c r="Z17">
+        <v>25</v>
+      </c>
+      <c r="AA17">
+        <v>12</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>95</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
         <v>27</v>
@@ -5808,21 +6054,21 @@
       <c r="W18" t="s">
         <v>27</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18">
         <v>60</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>25</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>12</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
         <v>0</v>
       </c>
@@ -5839,21 +6085,147 @@
         <v>0</v>
       </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>95</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>5</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
         <v>85</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>88</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19">
+        <v>60</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>12</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>95</v>
+      </c>
+      <c r="AJ19">
+        <v>5</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19">
         <v>1</v>
       </c>
     </row>
@@ -5866,10 +6238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5880,17 +6252,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="34" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.625" customWidth="1"/>
+    <col min="9" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="35" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5919,97 +6291,100 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>161</v>
+      <c r="AN1" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+100</f>
         <v>100</v>
@@ -6018,10 +6393,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6039,14 +6414,14 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
@@ -6080,11 +6455,11 @@
       <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
         <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -6093,7 +6468,7 @@
         <v>30</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -6111,37 +6486,40 @@
         <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>95</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>27</v>
+      <c r="AK2">
+        <v>0</v>
       </c>
       <c r="AL2" t="s">
         <v>27</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6159,14 +6537,14 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
@@ -6200,11 +6578,11 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3">
         <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
       </c>
       <c r="Z3">
         <v>30</v>
@@ -6213,7 +6591,7 @@
         <v>30</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -6231,25 +6609,28 @@
         <v>0</v>
       </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>95</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>27</v>
+      <c r="AK3">
+        <v>0</v>
       </c>
       <c r="AL3" t="s">
         <v>27</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -6258,13 +6639,13 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -6276,17 +6657,17 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
@@ -6320,11 +6701,11 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4">
         <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
       </c>
       <c r="Z4">
         <v>30</v>
@@ -6333,7 +6714,7 @@
         <v>30</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -6351,25 +6732,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>95</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>27</v>
+      <c r="AK4">
+        <v>0</v>
       </c>
       <c r="AL4" t="s">
         <v>27</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -6378,7 +6762,7 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
@@ -6401,12 +6785,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
@@ -6440,11 +6824,11 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5">
         <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
       </c>
       <c r="Z5">
         <v>30</v>
@@ -6453,7 +6837,7 @@
         <v>30</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -6471,25 +6855,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>95</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>27</v>
+      <c r="AK5">
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
         <v>27</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -6501,7 +6888,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -6521,15 +6908,15 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -6555,20 +6942,20 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
         <v>150</v>
       </c>
-      <c r="W6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+      <c r="X6" t="s">
+        <v>27</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>100</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
         <v>0</v>
       </c>
@@ -6591,25 +6978,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>98</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>129</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -6621,7 +7011,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
@@ -6641,30 +7031,30 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>71</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>147</v>
       </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
       <c r="S7" t="s">
         <v>27</v>
       </c>
@@ -6675,35 +7065,35 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>84</v>
-      </c>
-      <c r="X7">
-        <v>20</v>
       </c>
       <c r="Y7">
         <v>20</v>
       </c>
       <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
         <v>17</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>13</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>8</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>15</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
@@ -6711,25 +7101,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>83</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>85</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>130</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -6738,10 +7131,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -6756,17 +7149,17 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
@@ -6800,21 +7193,21 @@
       <c r="W8" t="s">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8">
         <v>60</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>25</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>12</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -6831,37 +7224,40 @@
         <v>0</v>
       </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>95</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
         <v>85</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>88</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -6879,14 +7275,14 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
       <c r="M9" t="s">
         <v>27</v>
       </c>
@@ -6920,21 +7316,21 @@
       <c r="W9" t="s">
         <v>27</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9">
         <v>60</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>25</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>12</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
         <v>0</v>
       </c>
@@ -6951,21 +7347,147 @@
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>95</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>85</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>88</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>95</v>
+      </c>
+      <c r="AJ10">
+        <v>5</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10">
         <v>1</v>
       </c>
     </row>
@@ -6978,10 +7500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6992,17 +7514,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="34" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.625" customWidth="1"/>
+    <col min="9" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="35" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7031,97 +7553,100 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>161</v>
+      <c r="AN1" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+100</f>
         <v>100</v>
@@ -7130,10 +7655,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -7151,14 +7676,14 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
@@ -7192,11 +7717,11 @@
       <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
         <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -7205,7 +7730,7 @@
         <v>30</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -7223,37 +7748,40 @@
         <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>95</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>27</v>
+      <c r="AK2">
+        <v>0</v>
       </c>
       <c r="AL2" t="s">
         <v>27</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -7271,14 +7799,14 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
@@ -7312,11 +7840,11 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3">
         <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
       </c>
       <c r="Z3">
         <v>30</v>
@@ -7325,7 +7853,7 @@
         <v>30</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -7343,25 +7871,28 @@
         <v>0</v>
       </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>95</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>27</v>
+      <c r="AK3">
+        <v>0</v>
       </c>
       <c r="AL3" t="s">
         <v>27</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -7370,10 +7901,10 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -7388,17 +7919,17 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
@@ -7432,11 +7963,11 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4">
         <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
       </c>
       <c r="Z4">
         <v>30</v>
@@ -7445,7 +7976,7 @@
         <v>30</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -7463,25 +7994,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>95</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>27</v>
+      <c r="AK4">
+        <v>0</v>
       </c>
       <c r="AL4" t="s">
         <v>27</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -7490,7 +8024,7 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
@@ -7513,12 +8047,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
@@ -7552,11 +8086,11 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5">
         <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
       </c>
       <c r="Z5">
         <v>30</v>
@@ -7565,7 +8099,7 @@
         <v>30</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -7583,25 +8117,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>95</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>27</v>
+      <c r="AK5">
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
         <v>27</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -7613,7 +8150,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -7633,15 +8170,15 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -7667,20 +8204,20 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
         <v>150</v>
       </c>
-      <c r="W6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+      <c r="X6" t="s">
+        <v>27</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>100</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
         <v>0</v>
       </c>
@@ -7703,25 +8240,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>98</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>129</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -7733,7 +8273,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
         <v>151</v>
@@ -7753,30 +8293,30 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>71</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>147</v>
       </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
       <c r="S7" t="s">
         <v>27</v>
       </c>
@@ -7787,35 +8327,35 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>84</v>
-      </c>
-      <c r="X7">
-        <v>20</v>
       </c>
       <c r="Y7">
         <v>20</v>
       </c>
       <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
         <v>17</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>13</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>8</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>15</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
@@ -7823,25 +8363,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>83</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>85</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>130</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -7850,10 +8393,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -7871,14 +8414,14 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
@@ -7912,21 +8455,21 @@
       <c r="W8" t="s">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8">
         <v>60</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>25</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>12</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -7943,37 +8486,40 @@
         <v>0</v>
       </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>95</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
         <v>85</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>88</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>151</v>
@@ -7991,14 +8537,14 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
       <c r="M9" t="s">
         <v>27</v>
       </c>
@@ -8032,21 +8578,21 @@
       <c r="W9" t="s">
         <v>27</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9">
         <v>60</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>25</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>12</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
         <v>0</v>
       </c>
@@ -8063,21 +8609,147 @@
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>95</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>85</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>88</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>95</v>
+      </c>
+      <c r="AJ10">
+        <v>5</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F52C19-6CA9-421D-BEFB-4BE092319065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D77457-BE40-47BC-B244-35F035CE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="23310" windowHeight="12720" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>88</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.4">
@@ -3871,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>88</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.4">
@@ -6241,7 +6241,7 @@
   <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7502,8 +7502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D77457-BE40-47BC-B244-35F035CE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B1760-4208-427C-9F66-FAD4E3A93444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" activeTab="1" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2715" yWindow="1155" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="192">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1117,6 +1117,85 @@
   </si>
   <si>
     <t>place_default_flag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Shop_B1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Shop_C1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Shop_D1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクレール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マリトッツォ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンブラ～ン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラッテ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄関から出る</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Comp_Entrance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Bar_B1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Bar_C1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Bar_D1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よいどれ亭</t>
+    <rPh sb="4" eb="5">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BARマカジキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さんま亭</t>
+    <rPh sb="3" eb="4">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふぐなべ亭</t>
+    <rPh sb="4" eb="5">
+      <t>テイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1503,7 +1582,7 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3871,7 +3950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -6238,10 +6317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6396,7 +6475,7 @@
         <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6509,17 +6588,17 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+100</f>
+        <f>ROW()-2+100</f>
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6632,23 +6711,23 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+100</f>
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6657,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -6755,23 +6834,23 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+100</f>
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6780,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -6878,29 +6957,29 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A6:A17" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6909,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -6945,22 +7024,22 @@
         <v>27</v>
       </c>
       <c r="W6" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="X6" t="s">
         <v>27</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -6981,19 +7060,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -7005,25 +7084,25 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7032,28 +7111,28 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -7068,31 +7147,31 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AB7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -7104,19 +7183,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AJ7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -7131,16 +7210,16 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7149,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7197,16 +7276,16 @@
         <v>27</v>
       </c>
       <c r="Y8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -7236,10 +7315,10 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -7254,16 +7333,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -7320,16 +7399,16 @@
         <v>27</v>
       </c>
       <c r="Y9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Z9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -7359,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -7377,16 +7456,16 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -7395,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7443,16 +7522,16 @@
         <v>27</v>
       </c>
       <c r="Y10">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -7482,12 +7561,873 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>30</v>
+      </c>
+      <c r="AA11">
+        <v>30</v>
+      </c>
+      <c r="AB11">
+        <v>30</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>95</v>
+      </c>
+      <c r="AJ11">
+        <v>5</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>30</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>30</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>95</v>
+      </c>
+      <c r="AJ12">
+        <v>5</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>100</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>98</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14">
+        <v>20</v>
+      </c>
+      <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <v>17</v>
+      </c>
+      <c r="AB14">
+        <v>13</v>
+      </c>
+      <c r="AC14">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>15</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>83</v>
+      </c>
+      <c r="AJ14">
+        <v>10</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14" t="s">
         <v>85</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15">
+        <v>60</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>95</v>
+      </c>
+      <c r="AJ15">
+        <v>5</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM15" t="s">
         <v>88</v>
       </c>
-      <c r="AN10">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16">
+        <v>60</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>95</v>
+      </c>
+      <c r="AJ16">
+        <v>5</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17">
+        <v>60</v>
+      </c>
+      <c r="Z17">
+        <v>25</v>
+      </c>
+      <c r="AA17">
+        <v>12</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>95</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN17">
         <v>1</v>
       </c>
     </row>
